--- a/doc/db/顧客管理システム(N-CRM)_テーブル定義書_v1.2.xlsx
+++ b/doc/db/顧客管理システム(N-CRM)_テーブル定義書_v1.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="15480" windowHeight="11640" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="15480" windowHeight="11640" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="356">
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
@@ -1363,10 +1363,6 @@
     <t>EMAIL2</t>
   </si>
   <si>
-    <t>UPDATE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>EMPNO</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1480,10 +1476,6 @@
   <si>
     <t>OSMYMD_SEQ</t>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>OUTSIDE_MAKE_DTL</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>400</t>
@@ -2238,21 +2230,57 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>エリアテーブルとリレーションを張る。</t>
-    <rPh sb="15" eb="16">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
+    <t>○</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>管理ID</t>
+    <t>訪問記録Ｎｏ</t>
     <rPh sb="0" eb="2">
-      <t>カンリ</t>
+      <t>ホウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>ID</t>
+    <t>サロゲートキーとして使用する。</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>VISIT_RECORD_NO</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>サロゲートキーとして使用する。</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>案件番号</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>OUTSIDE_MAKE_DTL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OUTSIDE_MAKE_ＮＯ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -2260,15 +2288,30 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>オートインクリメント</t>
+    <t>サロゲートキーとして使用。</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>エリアテーブルとリレーションする。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>LAST_MODIFIED</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SHORT_NAME</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2368,14 +2411,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2784,7 +2819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3250,6 +3285,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3257,6 +3295,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3267,9 +3353,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3292,29 +3375,14 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3334,8 +3402,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4971,6 +5045,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>37352</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7463117" y="1710764"/>
+          <a:ext cx="1636059" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No.16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の職員番号に統合するので削除。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388471" y="2562412"/>
+          <a:ext cx="8613588" cy="306294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5260,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CP42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -9195,7 +9388,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+      <selection activeCell="W28" sqref="W28:AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -9422,7 +9615,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -9521,7 +9714,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -9916,7 +10109,7 @@
       <c r="F10" s="125"/>
       <c r="G10" s="125"/>
       <c r="H10" s="126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I10" s="127"/>
       <c r="J10" s="127"/>
@@ -9933,7 +10126,7 @@
       <c r="U10" s="127"/>
       <c r="V10" s="127"/>
       <c r="W10" s="148" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X10" s="149"/>
       <c r="Y10" s="149"/>
@@ -10025,7 +10218,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
       <c r="H11" s="126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I11" s="127"/>
       <c r="J11" s="127"/>
@@ -10042,7 +10235,7 @@
       <c r="U11" s="127"/>
       <c r="V11" s="127"/>
       <c r="W11" s="148" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X11" s="149"/>
       <c r="Y11" s="149"/>
@@ -10134,7 +10327,7 @@
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
       <c r="H12" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I12" s="127"/>
       <c r="J12" s="127"/>
@@ -10151,7 +10344,7 @@
       <c r="U12" s="127"/>
       <c r="V12" s="127"/>
       <c r="W12" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X12" s="149"/>
       <c r="Y12" s="149"/>
@@ -10241,7 +10434,7 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -10283,7 +10476,7 @@
       <c r="AP13" s="147"/>
       <c r="AQ13" s="147"/>
       <c r="AR13" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS13" s="125"/>
       <c r="AT13" s="125"/>
@@ -10348,7 +10541,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -10365,7 +10558,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -10390,7 +10583,7 @@
       <c r="AP14" s="147"/>
       <c r="AQ14" s="147"/>
       <c r="AR14" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS14" s="125"/>
       <c r="AT14" s="125"/>
@@ -10455,7 +10648,7 @@
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
       <c r="H15" s="126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -10472,7 +10665,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -10562,7 +10755,7 @@
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
       <c r="H16" s="126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="127"/>
@@ -10579,7 +10772,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="148" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X16" s="149"/>
       <c r="Y16" s="149"/>
@@ -10669,7 +10862,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -10686,7 +10879,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
       <c r="W17" s="148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X17" s="149"/>
       <c r="Y17" s="149"/>
@@ -10776,7 +10969,7 @@
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
       <c r="H18" s="126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I18" s="127"/>
       <c r="J18" s="127"/>
@@ -10793,7 +10986,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="127"/>
       <c r="W18" s="148" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="X18" s="149"/>
       <c r="Y18" s="149"/>
@@ -10881,7 +11074,7 @@
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I19" s="127"/>
       <c r="J19" s="127"/>
@@ -10898,7 +11091,7 @@
       <c r="U19" s="127"/>
       <c r="V19" s="127"/>
       <c r="W19" s="148" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X19" s="149"/>
       <c r="Y19" s="149"/>
@@ -10986,7 +11179,7 @@
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
       <c r="H20" s="126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I20" s="127"/>
       <c r="J20" s="127"/>
@@ -11003,7 +11196,7 @@
       <c r="U20" s="127"/>
       <c r="V20" s="127"/>
       <c r="W20" s="148" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X20" s="149"/>
       <c r="Y20" s="149"/>
@@ -11091,7 +11284,7 @@
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
       <c r="H21" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="127"/>
@@ -11108,7 +11301,7 @@
       <c r="U21" s="127"/>
       <c r="V21" s="127"/>
       <c r="W21" s="148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X21" s="149"/>
       <c r="Y21" s="149"/>
@@ -11196,7 +11389,7 @@
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
       <c r="H22" s="126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I22" s="127"/>
       <c r="J22" s="127"/>
@@ -11213,7 +11406,7 @@
       <c r="U22" s="127"/>
       <c r="V22" s="127"/>
       <c r="W22" s="148" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X22" s="149"/>
       <c r="Y22" s="149"/>
@@ -11301,7 +11494,7 @@
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
       <c r="H23" s="126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I23" s="127"/>
       <c r="J23" s="127"/>
@@ -11318,7 +11511,7 @@
       <c r="U23" s="127"/>
       <c r="V23" s="127"/>
       <c r="W23" s="148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X23" s="149"/>
       <c r="Y23" s="149"/>
@@ -11406,7 +11599,7 @@
       <c r="F24" s="125"/>
       <c r="G24" s="125"/>
       <c r="H24" s="126" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I24" s="127"/>
       <c r="J24" s="127"/>
@@ -11423,7 +11616,7 @@
       <c r="U24" s="127"/>
       <c r="V24" s="127"/>
       <c r="W24" s="148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X24" s="149"/>
       <c r="Y24" s="149"/>
@@ -11511,7 +11704,7 @@
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
       <c r="H25" s="126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I25" s="127"/>
       <c r="J25" s="127"/>
@@ -11528,7 +11721,7 @@
       <c r="U25" s="127"/>
       <c r="V25" s="127"/>
       <c r="W25" s="148" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X25" s="149"/>
       <c r="Y25" s="149"/>
@@ -11616,7 +11809,7 @@
       <c r="F26" s="125"/>
       <c r="G26" s="125"/>
       <c r="H26" s="126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I26" s="127"/>
       <c r="J26" s="127"/>
@@ -11633,7 +11826,7 @@
       <c r="U26" s="127"/>
       <c r="V26" s="127"/>
       <c r="W26" s="148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X26" s="149"/>
       <c r="Y26" s="149"/>
@@ -11844,23 +12037,23 @@
       <c r="T28" s="139"/>
       <c r="U28" s="139"/>
       <c r="V28" s="140"/>
-      <c r="W28" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="127"/>
-      <c r="AH28" s="127"/>
-      <c r="AI28" s="127"/>
-      <c r="AJ28" s="127"/>
-      <c r="AK28" s="128"/>
+      <c r="W28" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="160"/>
+      <c r="AH28" s="160"/>
+      <c r="AI28" s="160"/>
+      <c r="AJ28" s="160"/>
+      <c r="AK28" s="161"/>
       <c r="AL28" s="147" t="s">
         <v>145</v>
       </c>
@@ -11950,7 +12143,7 @@
       <c r="U29" s="139"/>
       <c r="V29" s="140"/>
       <c r="W29" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X29" s="127"/>
       <c r="Y29" s="127"/>
@@ -11988,7 +12181,7 @@
       <c r="BA29" s="125"/>
       <c r="BB29" s="125"/>
       <c r="BC29" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BD29" s="127"/>
       <c r="BE29" s="127"/>
@@ -13421,7 +13614,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+      <selection activeCell="W26" sqref="W26:AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -13648,7 +13841,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -13747,7 +13940,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -14142,7 +14335,7 @@
       <c r="F10" s="125"/>
       <c r="G10" s="125"/>
       <c r="H10" s="126" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I10" s="127"/>
       <c r="J10" s="127"/>
@@ -14159,7 +14352,7 @@
       <c r="U10" s="127"/>
       <c r="V10" s="127"/>
       <c r="W10" s="148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X10" s="149"/>
       <c r="Y10" s="149"/>
@@ -14251,7 +14444,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
       <c r="H11" s="126" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I11" s="127"/>
       <c r="J11" s="127"/>
@@ -14268,7 +14461,7 @@
       <c r="U11" s="127"/>
       <c r="V11" s="127"/>
       <c r="W11" s="148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X11" s="149"/>
       <c r="Y11" s="149"/>
@@ -14360,7 +14553,7 @@
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
       <c r="H12" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I12" s="127"/>
       <c r="J12" s="127"/>
@@ -14377,7 +14570,7 @@
       <c r="U12" s="127"/>
       <c r="V12" s="127"/>
       <c r="W12" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X12" s="149"/>
       <c r="Y12" s="149"/>
@@ -14467,7 +14660,7 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -14509,7 +14702,7 @@
       <c r="AP13" s="147"/>
       <c r="AQ13" s="147"/>
       <c r="AR13" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS13" s="125"/>
       <c r="AT13" s="125"/>
@@ -14574,7 +14767,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -14591,7 +14784,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -14616,7 +14809,7 @@
       <c r="AP14" s="147"/>
       <c r="AQ14" s="147"/>
       <c r="AR14" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS14" s="125"/>
       <c r="AT14" s="125"/>
@@ -14681,7 +14874,7 @@
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
       <c r="H15" s="126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -14698,7 +14891,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -14788,7 +14981,7 @@
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
       <c r="H16" s="126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="127"/>
@@ -14805,7 +14998,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="148" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="X16" s="149"/>
       <c r="Y16" s="149"/>
@@ -14893,7 +15086,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -14910,7 +15103,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
       <c r="W17" s="148" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X17" s="149"/>
       <c r="Y17" s="149"/>
@@ -14998,7 +15191,7 @@
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
       <c r="H18" s="126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I18" s="127"/>
       <c r="J18" s="127"/>
@@ -15015,7 +15208,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="127"/>
       <c r="W18" s="148" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X18" s="149"/>
       <c r="Y18" s="149"/>
@@ -15103,7 +15296,7 @@
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I19" s="127"/>
       <c r="J19" s="127"/>
@@ -15120,7 +15313,7 @@
       <c r="U19" s="127"/>
       <c r="V19" s="127"/>
       <c r="W19" s="148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X19" s="149"/>
       <c r="Y19" s="149"/>
@@ -15208,7 +15401,7 @@
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
       <c r="H20" s="126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I20" s="127"/>
       <c r="J20" s="127"/>
@@ -15225,7 +15418,7 @@
       <c r="U20" s="127"/>
       <c r="V20" s="127"/>
       <c r="W20" s="148" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X20" s="149"/>
       <c r="Y20" s="149"/>
@@ -15313,7 +15506,7 @@
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
       <c r="H21" s="126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="127"/>
@@ -15330,7 +15523,7 @@
       <c r="U21" s="127"/>
       <c r="V21" s="127"/>
       <c r="W21" s="148" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X21" s="149"/>
       <c r="Y21" s="149"/>
@@ -15418,7 +15611,7 @@
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
       <c r="H22" s="126" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I22" s="127"/>
       <c r="J22" s="127"/>
@@ -15435,7 +15628,7 @@
       <c r="U22" s="127"/>
       <c r="V22" s="127"/>
       <c r="W22" s="148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X22" s="149"/>
       <c r="Y22" s="149"/>
@@ -15523,7 +15716,7 @@
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
       <c r="H23" s="126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I23" s="127"/>
       <c r="J23" s="127"/>
@@ -15540,7 +15733,7 @@
       <c r="U23" s="127"/>
       <c r="V23" s="127"/>
       <c r="W23" s="148" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X23" s="149"/>
       <c r="Y23" s="149"/>
@@ -15628,7 +15821,7 @@
       <c r="F24" s="125"/>
       <c r="G24" s="125"/>
       <c r="H24" s="126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I24" s="127"/>
       <c r="J24" s="127"/>
@@ -15645,7 +15838,7 @@
       <c r="U24" s="127"/>
       <c r="V24" s="127"/>
       <c r="W24" s="148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X24" s="149"/>
       <c r="Y24" s="149"/>
@@ -15856,23 +16049,23 @@
       <c r="T26" s="139"/>
       <c r="U26" s="139"/>
       <c r="V26" s="140"/>
-      <c r="W26" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="127"/>
-      <c r="AJ26" s="127"/>
-      <c r="AK26" s="128"/>
+      <c r="W26" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="161"/>
       <c r="AL26" s="147" t="s">
         <v>145</v>
       </c>
@@ -15962,7 +16155,7 @@
       <c r="U27" s="139"/>
       <c r="V27" s="140"/>
       <c r="W27" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X27" s="127"/>
       <c r="Y27" s="127"/>
@@ -16000,7 +16193,7 @@
       <c r="BA27" s="125"/>
       <c r="BB27" s="125"/>
       <c r="BC27" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BD27" s="127"/>
       <c r="BE27" s="127"/>
@@ -17627,7 +17820,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AV11" sqref="AV11:AY11"/>
+      <selection activeCell="W19" sqref="W19:AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -17854,7 +18047,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -17953,7 +18146,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -18365,7 +18558,7 @@
       <c r="U10" s="139"/>
       <c r="V10" s="140"/>
       <c r="W10" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X10" s="127"/>
       <c r="Y10" s="127"/>
@@ -18407,7 +18600,7 @@
       <c r="BA10" s="125"/>
       <c r="BB10" s="125"/>
       <c r="BC10" s="126" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BD10" s="127"/>
       <c r="BE10" s="127"/>
@@ -18459,7 +18652,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
       <c r="H11" s="138" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I11" s="139"/>
       <c r="J11" s="139"/>
@@ -18476,7 +18669,7 @@
       <c r="U11" s="139"/>
       <c r="V11" s="140"/>
       <c r="W11" s="148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="X11" s="149"/>
       <c r="Y11" s="149"/>
@@ -18566,7 +18759,7 @@
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
       <c r="H12" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I12" s="127"/>
       <c r="J12" s="127"/>
@@ -18583,7 +18776,7 @@
       <c r="U12" s="127"/>
       <c r="V12" s="127"/>
       <c r="W12" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X12" s="149"/>
       <c r="Y12" s="149"/>
@@ -18673,7 +18866,7 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -18715,7 +18908,7 @@
       <c r="AP13" s="147"/>
       <c r="AQ13" s="147"/>
       <c r="AR13" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS13" s="125"/>
       <c r="AT13" s="125"/>
@@ -18780,7 +18973,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -18797,7 +18990,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -18822,7 +19015,7 @@
       <c r="AP14" s="147"/>
       <c r="AQ14" s="147"/>
       <c r="AR14" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS14" s="125"/>
       <c r="AT14" s="125"/>
@@ -18837,7 +19030,7 @@
       <c r="BA14" s="125"/>
       <c r="BB14" s="125"/>
       <c r="BC14" s="126" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BD14" s="127"/>
       <c r="BE14" s="127"/>
@@ -18889,7 +19082,7 @@
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
       <c r="H15" s="126" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -18906,7 +19099,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -18996,7 +19189,7 @@
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
       <c r="H16" s="126" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="127"/>
@@ -19013,7 +19206,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X16" s="149"/>
       <c r="Y16" s="149"/>
@@ -19103,7 +19296,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -19120,7 +19313,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
       <c r="W17" s="148" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="X17" s="149"/>
       <c r="Y17" s="149"/>
@@ -19145,7 +19338,7 @@
       <c r="AP17" s="147"/>
       <c r="AQ17" s="147"/>
       <c r="AR17" s="125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AS17" s="125"/>
       <c r="AT17" s="125"/>
@@ -19160,7 +19353,7 @@
       <c r="BA17" s="125"/>
       <c r="BB17" s="125"/>
       <c r="BC17" s="126" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BD17" s="127"/>
       <c r="BE17" s="127"/>
@@ -19335,23 +19528,23 @@
       <c r="T19" s="139"/>
       <c r="U19" s="139"/>
       <c r="V19" s="140"/>
-      <c r="W19" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="127"/>
-      <c r="AK19" s="128"/>
+      <c r="W19" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="161"/>
       <c r="AL19" s="126" t="s">
         <v>145</v>
       </c>
@@ -19360,19 +19553,19 @@
       <c r="AO19" s="127"/>
       <c r="AP19" s="127"/>
       <c r="AQ19" s="128"/>
-      <c r="AR19" s="155" t="s">
+      <c r="AR19" s="156" t="s">
         <v>152</v>
       </c>
-      <c r="AS19" s="156"/>
-      <c r="AT19" s="156"/>
-      <c r="AU19" s="157"/>
-      <c r="AV19" s="155"/>
-      <c r="AW19" s="156"/>
-      <c r="AX19" s="156"/>
-      <c r="AY19" s="157"/>
-      <c r="AZ19" s="155"/>
-      <c r="BA19" s="156"/>
-      <c r="BB19" s="157"/>
+      <c r="AS19" s="157"/>
+      <c r="AT19" s="157"/>
+      <c r="AU19" s="158"/>
+      <c r="AV19" s="156"/>
+      <c r="AW19" s="157"/>
+      <c r="AX19" s="157"/>
+      <c r="AY19" s="158"/>
+      <c r="AZ19" s="156"/>
+      <c r="BA19" s="157"/>
+      <c r="BB19" s="158"/>
       <c r="BC19" s="126"/>
       <c r="BD19" s="127"/>
       <c r="BE19" s="127"/>
@@ -19423,97 +19616,97 @@
       </c>
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
-      <c r="H20" s="170" t="s">
+      <c r="H20" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="173" t="s">
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="X20" s="174"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="174"/>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="174"/>
-      <c r="AF20" s="174"/>
-      <c r="AG20" s="174"/>
-      <c r="AH20" s="174"/>
-      <c r="AI20" s="174"/>
-      <c r="AJ20" s="174"/>
-      <c r="AK20" s="175"/>
-      <c r="AL20" s="176" t="s">
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="171"/>
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="171"/>
+      <c r="AF20" s="171"/>
+      <c r="AG20" s="171"/>
+      <c r="AH20" s="171"/>
+      <c r="AI20" s="171"/>
+      <c r="AJ20" s="171"/>
+      <c r="AK20" s="172"/>
+      <c r="AL20" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="AM20" s="176"/>
-      <c r="AN20" s="176"/>
-      <c r="AO20" s="176"/>
-      <c r="AP20" s="176"/>
-      <c r="AQ20" s="176"/>
-      <c r="AR20" s="169" t="s">
+      <c r="AM20" s="173"/>
+      <c r="AN20" s="173"/>
+      <c r="AO20" s="173"/>
+      <c r="AP20" s="173"/>
+      <c r="AQ20" s="173"/>
+      <c r="AR20" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="AS20" s="169"/>
-      <c r="AT20" s="169"/>
-      <c r="AU20" s="169"/>
-      <c r="AV20" s="169"/>
-      <c r="AW20" s="169"/>
-      <c r="AX20" s="169"/>
-      <c r="AY20" s="169"/>
-      <c r="AZ20" s="169" t="s">
+      <c r="AS20" s="174"/>
+      <c r="AT20" s="174"/>
+      <c r="AU20" s="174"/>
+      <c r="AV20" s="174"/>
+      <c r="AW20" s="174"/>
+      <c r="AX20" s="174"/>
+      <c r="AY20" s="174"/>
+      <c r="AZ20" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="BA20" s="169"/>
-      <c r="BB20" s="169"/>
-      <c r="BC20" s="170" t="s">
-        <v>344</v>
-      </c>
-      <c r="BD20" s="171"/>
-      <c r="BE20" s="171"/>
-      <c r="BF20" s="171"/>
-      <c r="BG20" s="171"/>
-      <c r="BH20" s="171"/>
-      <c r="BI20" s="171"/>
-      <c r="BJ20" s="171"/>
-      <c r="BK20" s="171"/>
-      <c r="BL20" s="171"/>
-      <c r="BM20" s="171"/>
-      <c r="BN20" s="171"/>
-      <c r="BO20" s="171"/>
-      <c r="BP20" s="171"/>
-      <c r="BQ20" s="171"/>
-      <c r="BR20" s="171"/>
-      <c r="BS20" s="171"/>
-      <c r="BT20" s="171"/>
-      <c r="BU20" s="171"/>
-      <c r="BV20" s="171"/>
-      <c r="BW20" s="171"/>
-      <c r="BX20" s="171"/>
-      <c r="BY20" s="171"/>
-      <c r="BZ20" s="171"/>
-      <c r="CA20" s="171"/>
-      <c r="CB20" s="171"/>
-      <c r="CC20" s="171"/>
-      <c r="CD20" s="171"/>
-      <c r="CE20" s="171"/>
-      <c r="CF20" s="171"/>
-      <c r="CG20" s="171"/>
-      <c r="CH20" s="172"/>
+      <c r="BA20" s="174"/>
+      <c r="BB20" s="174"/>
+      <c r="BC20" s="159" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD20" s="160"/>
+      <c r="BE20" s="160"/>
+      <c r="BF20" s="160"/>
+      <c r="BG20" s="160"/>
+      <c r="BH20" s="160"/>
+      <c r="BI20" s="160"/>
+      <c r="BJ20" s="160"/>
+      <c r="BK20" s="160"/>
+      <c r="BL20" s="160"/>
+      <c r="BM20" s="160"/>
+      <c r="BN20" s="160"/>
+      <c r="BO20" s="160"/>
+      <c r="BP20" s="160"/>
+      <c r="BQ20" s="160"/>
+      <c r="BR20" s="160"/>
+      <c r="BS20" s="160"/>
+      <c r="BT20" s="160"/>
+      <c r="BU20" s="160"/>
+      <c r="BV20" s="160"/>
+      <c r="BW20" s="160"/>
+      <c r="BX20" s="160"/>
+      <c r="BY20" s="160"/>
+      <c r="BZ20" s="160"/>
+      <c r="CA20" s="160"/>
+      <c r="CB20" s="160"/>
+      <c r="CC20" s="160"/>
+      <c r="CD20" s="160"/>
+      <c r="CE20" s="160"/>
+      <c r="CF20" s="160"/>
+      <c r="CG20" s="160"/>
+      <c r="CH20" s="161"/>
       <c r="CI20" s="48"/>
       <c r="CJ20" s="37"/>
       <c r="CK20" s="34"/>
@@ -21787,7 +21980,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:CH21"/>
+      <selection activeCell="H22" sqref="H22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -22014,7 +22207,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -22113,7 +22306,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -22555,12 +22748,12 @@
       <c r="AS10" s="125"/>
       <c r="AT10" s="125"/>
       <c r="AU10" s="125"/>
-      <c r="AV10" s="125" t="s">
+      <c r="AV10" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="125"/>
-      <c r="AY10" s="125"/>
+      <c r="AW10" s="155"/>
+      <c r="AX10" s="155"/>
+      <c r="AY10" s="155"/>
       <c r="AZ10" s="125" t="s">
         <v>147</v>
       </c>
@@ -22664,12 +22857,12 @@
       <c r="AS11" s="125"/>
       <c r="AT11" s="125"/>
       <c r="AU11" s="125"/>
-      <c r="AV11" s="125" t="s">
+      <c r="AV11" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW11" s="125"/>
-      <c r="AX11" s="125"/>
-      <c r="AY11" s="125"/>
+      <c r="AW11" s="155"/>
+      <c r="AX11" s="155"/>
+      <c r="AY11" s="155"/>
       <c r="AZ11" s="125" t="s">
         <v>147</v>
       </c>
@@ -22773,19 +22966,19 @@
       <c r="AS12" s="125"/>
       <c r="AT12" s="125"/>
       <c r="AU12" s="125"/>
-      <c r="AV12" s="125" t="s">
+      <c r="AV12" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW12" s="125"/>
-      <c r="AX12" s="125"/>
-      <c r="AY12" s="125"/>
+      <c r="AW12" s="155"/>
+      <c r="AX12" s="155"/>
+      <c r="AY12" s="155"/>
       <c r="AZ12" s="125" t="s">
         <v>147</v>
       </c>
       <c r="BA12" s="125"/>
       <c r="BB12" s="125"/>
       <c r="BC12" s="126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD12" s="127"/>
       <c r="BE12" s="127"/>
@@ -22878,23 +23071,23 @@
       <c r="AO13" s="127"/>
       <c r="AP13" s="127"/>
       <c r="AQ13" s="128"/>
-      <c r="AR13" s="155" t="s">
+      <c r="AR13" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="AS13" s="156"/>
-      <c r="AT13" s="156"/>
-      <c r="AU13" s="157"/>
-      <c r="AV13" s="155" t="s">
+      <c r="AS13" s="157"/>
+      <c r="AT13" s="157"/>
+      <c r="AU13" s="158"/>
+      <c r="AV13" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="AW13" s="156"/>
-      <c r="AX13" s="156"/>
-      <c r="AY13" s="157"/>
-      <c r="AZ13" s="155" t="s">
+      <c r="AW13" s="157"/>
+      <c r="AX13" s="157"/>
+      <c r="AY13" s="158"/>
+      <c r="AZ13" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="BA13" s="156"/>
-      <c r="BB13" s="157"/>
+      <c r="BA13" s="157"/>
+      <c r="BB13" s="158"/>
       <c r="BC13" s="126"/>
       <c r="BD13" s="127"/>
       <c r="BE13" s="127"/>
@@ -22946,7 +23139,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -22963,7 +23156,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -22987,23 +23180,23 @@
       <c r="AO14" s="127"/>
       <c r="AP14" s="127"/>
       <c r="AQ14" s="128"/>
-      <c r="AR14" s="155" t="s">
+      <c r="AR14" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="AS14" s="156"/>
-      <c r="AT14" s="156"/>
-      <c r="AU14" s="157"/>
-      <c r="AV14" s="155" t="s">
+      <c r="AS14" s="157"/>
+      <c r="AT14" s="157"/>
+      <c r="AU14" s="158"/>
+      <c r="AV14" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="AW14" s="156"/>
-      <c r="AX14" s="156"/>
-      <c r="AY14" s="157"/>
-      <c r="AZ14" s="155" t="s">
+      <c r="AW14" s="186"/>
+      <c r="AX14" s="186"/>
+      <c r="AY14" s="187"/>
+      <c r="AZ14" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="BA14" s="156"/>
-      <c r="BB14" s="157"/>
+      <c r="BA14" s="157"/>
+      <c r="BB14" s="158"/>
       <c r="BC14" s="126"/>
       <c r="BD14" s="127"/>
       <c r="BE14" s="127"/>
@@ -23055,7 +23248,7 @@
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
       <c r="H15" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -23072,7 +23265,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -23162,7 +23355,7 @@
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
       <c r="H16" s="126" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="127"/>
@@ -23204,7 +23397,7 @@
       <c r="AP16" s="147"/>
       <c r="AQ16" s="147"/>
       <c r="AR16" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS16" s="125"/>
       <c r="AT16" s="125"/>
@@ -23269,7 +23462,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -23285,23 +23478,23 @@
       <c r="T17" s="127"/>
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
-      <c r="W17" s="148" t="s">
-        <v>239</v>
-      </c>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="149"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="150"/>
+      <c r="W17" s="170" t="s">
+        <v>355</v>
+      </c>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="171"/>
+      <c r="AF17" s="171"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="171"/>
+      <c r="AI17" s="171"/>
+      <c r="AJ17" s="171"/>
+      <c r="AK17" s="172"/>
       <c r="AL17" s="147" t="s">
         <v>150</v>
       </c>
@@ -23311,7 +23504,7 @@
       <c r="AP17" s="147"/>
       <c r="AQ17" s="147"/>
       <c r="AR17" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS17" s="125"/>
       <c r="AT17" s="125"/>
@@ -23393,7 +23586,7 @@
       <c r="U18" s="139"/>
       <c r="V18" s="140"/>
       <c r="W18" s="148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X18" s="149"/>
       <c r="Y18" s="149"/>
@@ -23481,7 +23674,7 @@
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" s="127"/>
       <c r="J19" s="127"/>
@@ -23604,23 +23797,23 @@
       <c r="T20" s="139"/>
       <c r="U20" s="139"/>
       <c r="V20" s="140"/>
-      <c r="W20" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="128"/>
+      <c r="W20" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="161"/>
       <c r="AL20" s="147" t="s">
         <v>145</v>
       </c>
@@ -23710,7 +23903,7 @@
       <c r="U21" s="139"/>
       <c r="V21" s="140"/>
       <c r="W21" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X21" s="127"/>
       <c r="Y21" s="127"/>
@@ -23748,7 +23941,7 @@
       <c r="BA21" s="125"/>
       <c r="BB21" s="125"/>
       <c r="BC21" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BD21" s="127"/>
       <c r="BE21" s="127"/>
@@ -26677,21 +26870,21 @@
       </c>
       <c r="F10" s="125"/>
       <c r="G10" s="125"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="178"/>
-      <c r="V10" s="179"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="189"/>
+      <c r="T10" s="189"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="190"/>
       <c r="W10" s="126"/>
       <c r="X10" s="127"/>
       <c r="Y10" s="127"/>
@@ -26772,21 +26965,21 @@
       <c r="E11" s="125"/>
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="178"/>
-      <c r="U11" s="178"/>
-      <c r="V11" s="179"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="190"/>
       <c r="W11" s="126"/>
       <c r="X11" s="127"/>
       <c r="Y11" s="127"/>
@@ -26867,21 +27060,21 @@
       <c r="E12" s="125"/>
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="179"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="190"/>
       <c r="W12" s="126"/>
       <c r="X12" s="127"/>
       <c r="Y12" s="127"/>
@@ -26962,21 +27155,21 @@
       <c r="E13" s="125"/>
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="179"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="190"/>
       <c r="W13" s="126"/>
       <c r="X13" s="127"/>
       <c r="Y13" s="127"/>
@@ -27057,21 +27250,21 @@
       <c r="E14" s="125"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="178"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="179"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="190"/>
       <c r="W14" s="126"/>
       <c r="X14" s="127"/>
       <c r="Y14" s="127"/>
@@ -27152,21 +27345,21 @@
       <c r="E15" s="125"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="179"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="190"/>
       <c r="W15" s="126"/>
       <c r="X15" s="127"/>
       <c r="Y15" s="127"/>
@@ -27247,21 +27440,21 @@
       <c r="E16" s="125"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="179"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="190"/>
       <c r="W16" s="126"/>
       <c r="X16" s="127"/>
       <c r="Y16" s="127"/>
@@ -27342,21 +27535,21 @@
       <c r="E17" s="125"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="179"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
+      <c r="S17" s="189"/>
+      <c r="T17" s="189"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="190"/>
       <c r="W17" s="126"/>
       <c r="X17" s="127"/>
       <c r="Y17" s="127"/>
@@ -27437,21 +27630,21 @@
       <c r="E18" s="125"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="179"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="190"/>
       <c r="W18" s="126"/>
       <c r="X18" s="127"/>
       <c r="Y18" s="127"/>
@@ -27532,21 +27725,21 @@
       <c r="E19" s="125"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="179"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="189"/>
+      <c r="T19" s="189"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="190"/>
       <c r="W19" s="126"/>
       <c r="X19" s="127"/>
       <c r="Y19" s="127"/>
@@ -27627,21 +27820,21 @@
       <c r="E20" s="125"/>
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="179"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="189"/>
+      <c r="T20" s="189"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="190"/>
       <c r="W20" s="126"/>
       <c r="X20" s="127"/>
       <c r="Y20" s="127"/>
@@ -27722,21 +27915,21 @@
       <c r="E21" s="125"/>
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="178"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
-      <c r="T21" s="178"/>
-      <c r="U21" s="178"/>
-      <c r="V21" s="179"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="189"/>
+      <c r="T21" s="189"/>
+      <c r="U21" s="189"/>
+      <c r="V21" s="190"/>
       <c r="W21" s="126"/>
       <c r="X21" s="127"/>
       <c r="Y21" s="127"/>
@@ -27817,21 +28010,21 @@
       <c r="E22" s="125"/>
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178"/>
-      <c r="V22" s="179"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="189"/>
+      <c r="S22" s="189"/>
+      <c r="T22" s="189"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="190"/>
       <c r="W22" s="126"/>
       <c r="X22" s="127"/>
       <c r="Y22" s="127"/>
@@ -27912,21 +28105,21 @@
       <c r="E23" s="125"/>
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="182"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="193"/>
       <c r="W23" s="126"/>
       <c r="X23" s="127"/>
       <c r="Y23" s="127"/>
@@ -29742,6 +29935,13 @@
     <mergeCell ref="AR9:AU9"/>
     <mergeCell ref="AV9:AY9"/>
     <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="H14:V14"/>
+    <mergeCell ref="H13:V13"/>
+    <mergeCell ref="BC13:CH13"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="BC10:CH10"/>
+    <mergeCell ref="H9:V9"/>
+    <mergeCell ref="W9:AK9"/>
     <mergeCell ref="BC16:CH16"/>
     <mergeCell ref="BC12:CH12"/>
     <mergeCell ref="AR15:AU15"/>
@@ -29766,13 +29966,6 @@
     <mergeCell ref="AV16:AY16"/>
     <mergeCell ref="AZ16:BB16"/>
     <mergeCell ref="BC14:CH14"/>
-    <mergeCell ref="H14:V14"/>
-    <mergeCell ref="H13:V13"/>
-    <mergeCell ref="BC13:CH13"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="BC10:CH10"/>
-    <mergeCell ref="H9:V9"/>
-    <mergeCell ref="W9:AK9"/>
     <mergeCell ref="H10:V10"/>
     <mergeCell ref="W10:AK10"/>
     <mergeCell ref="AZ10:BB10"/>
@@ -29788,6 +29981,15 @@
     <mergeCell ref="BC18:CH18"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="H12:V12"/>
+    <mergeCell ref="W12:AK12"/>
+    <mergeCell ref="AL12:AQ12"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="W14:AK14"/>
+    <mergeCell ref="AL14:AQ14"/>
+    <mergeCell ref="AR14:AU14"/>
     <mergeCell ref="BC21:CH21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:V21"/>
@@ -29809,12 +30011,7 @@
     <mergeCell ref="AL19:AQ19"/>
     <mergeCell ref="AR19:AU19"/>
     <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AZ24:BB24"/>
+    <mergeCell ref="AR21:AU21"/>
     <mergeCell ref="BC24:CH24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:V24"/>
@@ -29833,30 +30030,26 @@
     <mergeCell ref="AZ23:BB23"/>
     <mergeCell ref="BC23:CH23"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H12:V12"/>
-    <mergeCell ref="W12:AK12"/>
-    <mergeCell ref="AL12:AQ12"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="W14:AK14"/>
-    <mergeCell ref="AL14:AQ14"/>
-    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="W13:AK13"/>
+    <mergeCell ref="AL13:AQ13"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="AZ13:BB13"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AZ24:BB24"/>
+    <mergeCell ref="H17:V17"/>
+    <mergeCell ref="W17:AK17"/>
+    <mergeCell ref="AL17:AQ17"/>
+    <mergeCell ref="AR17:AU17"/>
     <mergeCell ref="AV14:AY14"/>
     <mergeCell ref="AZ14:BB14"/>
     <mergeCell ref="AZ21:BB21"/>
     <mergeCell ref="AZ19:BB19"/>
     <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="W13:AK13"/>
-    <mergeCell ref="AL13:AQ13"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AZ13:BB13"/>
-    <mergeCell ref="H17:V17"/>
-    <mergeCell ref="W17:AK17"/>
-    <mergeCell ref="AL17:AQ17"/>
-    <mergeCell ref="AR17:AU17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30397,7 +30590,7 @@
       <c r="E8" s="109"/>
       <c r="F8" s="110"/>
       <c r="G8" s="105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="106"/>
@@ -30420,7 +30613,7 @@
       <c r="X8" s="103"/>
       <c r="Y8" s="104"/>
       <c r="Z8" s="105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AA8" s="106"/>
       <c r="AB8" s="106"/>
@@ -30429,7 +30622,7 @@
       <c r="AE8" s="106"/>
       <c r="AF8" s="107"/>
       <c r="AG8" s="102" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH8" s="103"/>
       <c r="AI8" s="103"/>
@@ -30500,13 +30693,13 @@
     <row r="9" spans="2:94" ht="11.25" customHeight="1">
       <c r="B9" s="16"/>
       <c r="C9" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
       <c r="F9" s="98"/>
       <c r="G9" s="99" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H9" s="100"/>
       <c r="I9" s="100"/>
@@ -30529,7 +30722,7 @@
       <c r="X9" s="94"/>
       <c r="Y9" s="95"/>
       <c r="Z9" s="105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AA9" s="106"/>
       <c r="AB9" s="106"/>
@@ -30538,7 +30731,7 @@
       <c r="AE9" s="106"/>
       <c r="AF9" s="107"/>
       <c r="AG9" s="102" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH9" s="103"/>
       <c r="AI9" s="103"/>
@@ -30552,7 +30745,7 @@
       <c r="AQ9" s="103"/>
       <c r="AR9" s="104"/>
       <c r="AS9" s="93" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AT9" s="94"/>
       <c r="AU9" s="94"/>
@@ -30567,7 +30760,7 @@
       <c r="BD9" s="94"/>
       <c r="BE9" s="95"/>
       <c r="BF9" s="93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BG9" s="94"/>
       <c r="BH9" s="94"/>
@@ -30609,13 +30802,13 @@
     <row r="10" spans="2:94">
       <c r="B10" s="16"/>
       <c r="C10" s="96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="97"/>
       <c r="F10" s="98"/>
       <c r="G10" s="99" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100"/>
@@ -30638,7 +30831,7 @@
       <c r="X10" s="94"/>
       <c r="Y10" s="95"/>
       <c r="Z10" s="99" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA10" s="100"/>
       <c r="AB10" s="100"/>
@@ -30647,7 +30840,7 @@
       <c r="AE10" s="100"/>
       <c r="AF10" s="101"/>
       <c r="AG10" s="93" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH10" s="94"/>
       <c r="AI10" s="94"/>
@@ -30661,7 +30854,7 @@
       <c r="AQ10" s="94"/>
       <c r="AR10" s="95"/>
       <c r="AS10" s="93" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AT10" s="94"/>
       <c r="AU10" s="94"/>
@@ -30676,7 +30869,7 @@
       <c r="BD10" s="94"/>
       <c r="BE10" s="95"/>
       <c r="BF10" s="93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BG10" s="94"/>
       <c r="BH10" s="94"/>
@@ -33757,9 +33950,6 @@
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="N27:Y27"/>
-    <mergeCell ref="Z27:AF27"/>
     <mergeCell ref="Z28:AF28"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="G24:M24"/>
@@ -33767,21 +33957,18 @@
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="N26:Y26"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="N25:Y25"/>
-    <mergeCell ref="AG23:AR23"/>
-    <mergeCell ref="BF8:CO8"/>
-    <mergeCell ref="AS8:BE8"/>
-    <mergeCell ref="AG8:AR8"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="Z24:AF24"/>
-    <mergeCell ref="N22:Y22"/>
-    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="N21:Y21"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG22:AR22"/>
+    <mergeCell ref="Z25:AF25"/>
+    <mergeCell ref="AG25:AR25"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="N27:Y27"/>
+    <mergeCell ref="Z27:AF27"/>
     <mergeCell ref="BV2:CP2"/>
     <mergeCell ref="AG7:AR7"/>
     <mergeCell ref="BF7:CO7"/>
@@ -33817,21 +34004,6 @@
     <mergeCell ref="N30:Y30"/>
     <mergeCell ref="Z30:AF30"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="N23:Y23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="N21:Y21"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG22:AR22"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="Z25:AF25"/>
-    <mergeCell ref="AG25:AR25"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AG24:AR24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="AG21:AR21"/>
-    <mergeCell ref="Z26:AF26"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="AS19:BE19"/>
@@ -33851,11 +34023,9 @@
     <mergeCell ref="Z11:AF11"/>
     <mergeCell ref="AG11:AR11"/>
     <mergeCell ref="AS11:BE11"/>
-    <mergeCell ref="N12:Y12"/>
-    <mergeCell ref="BF11:CO11"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="BF8:CO8"/>
+    <mergeCell ref="AS8:BE8"/>
+    <mergeCell ref="AG8:AR8"/>
     <mergeCell ref="AG35:AR35"/>
     <mergeCell ref="AS35:BE35"/>
     <mergeCell ref="BF35:CO35"/>
@@ -33875,15 +34045,35 @@
     <mergeCell ref="AS21:BE21"/>
     <mergeCell ref="AS23:BE23"/>
     <mergeCell ref="AS22:BE22"/>
-    <mergeCell ref="AS24:BE24"/>
-    <mergeCell ref="AS25:BE25"/>
-    <mergeCell ref="AS26:BE26"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AG24:AR24"/>
+    <mergeCell ref="AG21:AR21"/>
+    <mergeCell ref="Z26:AF26"/>
+    <mergeCell ref="AG23:AR23"/>
     <mergeCell ref="AG20:AR20"/>
     <mergeCell ref="Z20:AF20"/>
     <mergeCell ref="AS29:BE29"/>
     <mergeCell ref="AG30:AR30"/>
     <mergeCell ref="AS30:BE30"/>
     <mergeCell ref="BF30:CO30"/>
+    <mergeCell ref="N12:Y12"/>
+    <mergeCell ref="BF11:CO11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="N9:Y9"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="N25:Y25"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="Z24:AF24"/>
+    <mergeCell ref="N22:Y22"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="N23:Y23"/>
     <mergeCell ref="BF31:CO31"/>
     <mergeCell ref="AS34:BE34"/>
     <mergeCell ref="AS31:BE31"/>
@@ -33895,6 +34085,9 @@
     <mergeCell ref="AG26:AR26"/>
     <mergeCell ref="AG34:AR34"/>
     <mergeCell ref="AG27:AR27"/>
+    <mergeCell ref="AS24:BE24"/>
+    <mergeCell ref="AS25:BE25"/>
+    <mergeCell ref="AS26:BE26"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="N39:Y39"/>
@@ -34826,7 +35019,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
       <c r="H11" s="126" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I11" s="127"/>
       <c r="J11" s="127"/>
@@ -34927,7 +35120,7 @@
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
       <c r="H12" s="126" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I12" s="127"/>
       <c r="J12" s="127"/>
@@ -34944,7 +35137,7 @@
       <c r="U12" s="127"/>
       <c r="V12" s="128"/>
       <c r="W12" s="126" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="X12" s="127"/>
       <c r="Y12" s="127"/>
@@ -35028,7 +35221,7 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -35045,7 +35238,7 @@
       <c r="U13" s="127"/>
       <c r="V13" s="128"/>
       <c r="W13" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X13" s="127"/>
       <c r="Y13" s="127"/>
@@ -35129,7 +35322,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -35146,7 +35339,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="128"/>
       <c r="W14" s="126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X14" s="127"/>
       <c r="Y14" s="127"/>
@@ -35230,7 +35423,7 @@
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
       <c r="H15" s="126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I15" s="127"/>
       <c r="J15" s="127"/>
@@ -35247,7 +35440,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="128"/>
       <c r="W15" s="126" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="X15" s="127"/>
       <c r="Y15" s="127"/>
@@ -35331,7 +35524,7 @@
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
       <c r="H16" s="126" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="127"/>
@@ -35348,7 +35541,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="128"/>
       <c r="W16" s="126" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="X16" s="127"/>
       <c r="Y16" s="127"/>
@@ -35432,7 +35625,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -35449,7 +35642,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="128"/>
       <c r="W17" s="126" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="X17" s="127"/>
       <c r="Y17" s="127"/>
@@ -35533,7 +35726,7 @@
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
       <c r="H18" s="126" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I18" s="127"/>
       <c r="J18" s="127"/>
@@ -35550,7 +35743,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="128"/>
       <c r="W18" s="126" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="X18" s="127"/>
       <c r="Y18" s="127"/>
@@ -35634,7 +35827,7 @@
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I19" s="127"/>
       <c r="J19" s="127"/>
@@ -35651,7 +35844,7 @@
       <c r="U19" s="127"/>
       <c r="V19" s="128"/>
       <c r="W19" s="126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X19" s="127"/>
       <c r="Y19" s="127"/>
@@ -38399,7 +38592,7 @@
     <row r="8" spans="2:94">
       <c r="B8" s="26"/>
       <c r="C8" s="141" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="142"/>
       <c r="E8" s="142"/>
@@ -38421,7 +38614,7 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
       <c r="W8" s="141" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X8" s="142"/>
       <c r="Y8" s="142"/>
@@ -38443,7 +38636,7 @@
       <c r="AO8" s="29"/>
       <c r="AP8" s="29"/>
       <c r="AQ8" s="141" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AR8" s="142"/>
       <c r="AS8" s="142"/>
@@ -38719,7 +38912,7 @@
       <c r="P11" s="136"/>
       <c r="Q11" s="137"/>
       <c r="R11" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
@@ -38743,7 +38936,7 @@
       <c r="AJ11" s="136"/>
       <c r="AK11" s="137"/>
       <c r="AL11" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM11" s="34"/>
       <c r="AN11" s="84"/>
@@ -38767,7 +38960,7 @@
       <c r="BD11" s="136"/>
       <c r="BE11" s="137"/>
       <c r="BF11" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
@@ -38808,7 +39001,7 @@
     <row r="12" spans="2:94">
       <c r="B12" s="26"/>
       <c r="C12" s="126" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D12" s="127"/>
       <c r="E12" s="127"/>
@@ -38847,7 +39040,7 @@
       <c r="AJ12" s="136"/>
       <c r="AK12" s="137"/>
       <c r="AL12" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM12" s="38"/>
       <c r="AN12" s="84"/>
@@ -38871,7 +39064,7 @@
       <c r="BD12" s="136"/>
       <c r="BE12" s="137"/>
       <c r="BF12" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
@@ -38930,14 +39123,14 @@
       <c r="P13" s="127"/>
       <c r="Q13" s="128"/>
       <c r="R13" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
       <c r="W13" s="135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X13" s="136"/>
       <c r="Y13" s="136"/>
@@ -38959,7 +39152,7 @@
       <c r="AO13" s="38"/>
       <c r="AP13" s="38"/>
       <c r="AQ13" s="135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR13" s="136"/>
       <c r="AS13" s="136"/>
@@ -39033,7 +39226,7 @@
       <c r="P14" s="127"/>
       <c r="Q14" s="128"/>
       <c r="R14" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
@@ -39136,7 +39329,7 @@
       <c r="P15" s="127"/>
       <c r="Q15" s="128"/>
       <c r="R15" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
@@ -39187,7 +39380,7 @@
       <c r="BI15" s="38"/>
       <c r="BJ15" s="38"/>
       <c r="BK15" s="141" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BL15" s="142"/>
       <c r="BM15" s="142"/>
@@ -39307,7 +39500,7 @@
       <c r="BX16" s="145"/>
       <c r="BY16" s="146"/>
       <c r="BZ16" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="CA16" s="3"/>
       <c r="CB16" s="3"/>
@@ -39346,7 +39539,7 @@
       <c r="P17" s="127"/>
       <c r="Q17" s="128"/>
       <c r="R17" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -39370,7 +39563,7 @@
       <c r="AJ17" s="139"/>
       <c r="AK17" s="140"/>
       <c r="AL17" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AM17" s="29"/>
       <c r="AN17" s="77"/>
@@ -39399,7 +39592,7 @@
       <c r="BI17" s="87"/>
       <c r="BJ17" s="88"/>
       <c r="BK17" s="144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BL17" s="145"/>
       <c r="BM17" s="145"/>
@@ -39478,7 +39671,7 @@
       <c r="AO18" s="29"/>
       <c r="AP18" s="66"/>
       <c r="AQ18" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AR18" s="127"/>
       <c r="AS18" s="127"/>
@@ -39552,7 +39745,7 @@
       <c r="P19" s="139"/>
       <c r="Q19" s="140"/>
       <c r="R19" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
@@ -39830,7 +40023,7 @@
     <row r="22" spans="2:94">
       <c r="B22" s="26"/>
       <c r="C22" s="141" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D22" s="142"/>
       <c r="E22" s="142"/>
@@ -39889,7 +40082,7 @@
       <c r="BD22" s="139"/>
       <c r="BE22" s="140"/>
       <c r="BF22" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="BG22" s="29"/>
       <c r="BH22" s="29"/>
@@ -39948,7 +40141,7 @@
       <c r="P23" s="136"/>
       <c r="Q23" s="137"/>
       <c r="R23" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -40054,7 +40247,7 @@
       <c r="AO24" s="29"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AR24" s="58"/>
       <c r="AS24" s="58"/>
@@ -40207,7 +40400,7 @@
     <row r="26" spans="2:94">
       <c r="B26" s="26"/>
       <c r="C26" s="141" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D26" s="142"/>
       <c r="E26" s="142"/>
@@ -40271,7 +40464,7 @@
       <c r="BI26" s="29"/>
       <c r="BJ26" s="29"/>
       <c r="BK26" s="141" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BL26" s="142"/>
       <c r="BM26" s="142"/>
@@ -40308,7 +40501,7 @@
     <row r="27" spans="2:94">
       <c r="B27" s="26"/>
       <c r="C27" s="135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D27" s="136"/>
       <c r="E27" s="136"/>
@@ -40367,7 +40560,7 @@
       <c r="BD27" s="69"/>
       <c r="BE27" s="70"/>
       <c r="BF27" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BG27" s="29"/>
       <c r="BH27" s="29"/>
@@ -40411,7 +40604,7 @@
     <row r="28" spans="2:94">
       <c r="B28" s="26"/>
       <c r="C28" s="135" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D28" s="136"/>
       <c r="E28" s="136"/>
@@ -40428,7 +40621,7 @@
       <c r="P28" s="136"/>
       <c r="Q28" s="137"/>
       <c r="R28" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
@@ -40554,7 +40747,7 @@
       <c r="AO29" s="3"/>
       <c r="AP29" s="78"/>
       <c r="AQ29" s="68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR29" s="69"/>
       <c r="AS29" s="69"/>
@@ -40692,7 +40885,7 @@
       <c r="BX30" s="136"/>
       <c r="BY30" s="137"/>
       <c r="BZ30" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CA30" s="29"/>
       <c r="CB30" s="29"/>
@@ -40714,7 +40907,7 @@
     <row r="31" spans="2:94">
       <c r="B31" s="26"/>
       <c r="C31" s="141" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D31" s="142"/>
       <c r="E31" s="142"/>
@@ -40778,7 +40971,7 @@
       <c r="BI31" s="29"/>
       <c r="BJ31" s="29"/>
       <c r="BK31" s="135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL31" s="136"/>
       <c r="BM31" s="136"/>
@@ -40815,7 +41008,7 @@
     <row r="32" spans="2:94">
       <c r="B32" s="26"/>
       <c r="C32" s="135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -40857,7 +41050,7 @@
       <c r="AO32" s="29"/>
       <c r="AP32" s="79"/>
       <c r="AQ32" s="138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AR32" s="139"/>
       <c r="AS32" s="139"/>
@@ -40914,7 +41107,7 @@
     <row r="33" spans="2:94">
       <c r="B33" s="26"/>
       <c r="C33" s="135" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -40931,7 +41124,7 @@
       <c r="P33" s="136"/>
       <c r="Q33" s="137"/>
       <c r="R33" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
@@ -41152,7 +41345,7 @@
       <c r="AO35" s="29"/>
       <c r="AP35" s="29"/>
       <c r="AQ35" s="126" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AR35" s="127"/>
       <c r="AS35" s="127"/>
@@ -41266,7 +41459,7 @@
       <c r="BD36" s="139"/>
       <c r="BE36" s="140"/>
       <c r="BF36" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BG36" s="3"/>
       <c r="BH36" s="3"/>
@@ -41361,7 +41554,7 @@
       <c r="BD37" s="139"/>
       <c r="BE37" s="140"/>
       <c r="BF37" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BG37" s="3"/>
       <c r="BH37" s="3"/>
@@ -41456,7 +41649,7 @@
       <c r="BD38" s="127"/>
       <c r="BE38" s="128"/>
       <c r="BF38" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
@@ -41513,7 +41706,7 @@
       <c r="BD39" s="127"/>
       <c r="BE39" s="128"/>
       <c r="BF39" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
@@ -41592,7 +41785,7 @@
       <c r="AO40" s="3"/>
       <c r="AP40" s="29"/>
       <c r="AQ40" s="126" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AR40" s="127"/>
       <c r="AS40" s="127"/>
@@ -41667,7 +41860,7 @@
       <c r="BD41" s="139"/>
       <c r="BE41" s="140"/>
       <c r="BF41" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="BG41" s="3"/>
       <c r="BH41" s="29"/>
@@ -41890,7 +42083,7 @@
   <dimension ref="B1:CP49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:V11"/>
+      <selection activeCell="W44" sqref="W44:AK44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -42767,12 +42960,12 @@
       <c r="AS11" s="125"/>
       <c r="AT11" s="125"/>
       <c r="AU11" s="125"/>
-      <c r="AV11" s="161" t="s">
+      <c r="AV11" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="161"/>
-      <c r="AY11" s="161"/>
+      <c r="AW11" s="155"/>
+      <c r="AX11" s="155"/>
+      <c r="AY11" s="155"/>
       <c r="AZ11" s="125" t="s">
         <v>147</v>
       </c>
@@ -42876,19 +43069,19 @@
       <c r="AS12" s="125"/>
       <c r="AT12" s="125"/>
       <c r="AU12" s="125"/>
-      <c r="AV12" s="161" t="s">
+      <c r="AV12" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW12" s="161"/>
-      <c r="AX12" s="161"/>
-      <c r="AY12" s="161"/>
+      <c r="AW12" s="155"/>
+      <c r="AX12" s="155"/>
+      <c r="AY12" s="155"/>
       <c r="AZ12" s="125" t="s">
         <v>147</v>
       </c>
       <c r="BA12" s="125"/>
       <c r="BB12" s="125"/>
       <c r="BC12" s="126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD12" s="127"/>
       <c r="BE12" s="127"/>
@@ -42940,7 +43133,7 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -42957,7 +43150,7 @@
       <c r="U13" s="127"/>
       <c r="V13" s="127"/>
       <c r="W13" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X13" s="149"/>
       <c r="Y13" s="149"/>
@@ -43047,7 +43240,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -45335,7 +45528,7 @@
       <c r="U35" s="127"/>
       <c r="V35" s="127"/>
       <c r="W35" s="126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X35" s="127"/>
       <c r="Y35" s="127"/>
@@ -45375,7 +45568,7 @@
       <c r="BA35" s="125"/>
       <c r="BB35" s="125"/>
       <c r="BC35" s="126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BD35" s="127"/>
       <c r="BE35" s="127"/>
@@ -46283,23 +46476,23 @@
       <c r="T44" s="127"/>
       <c r="U44" s="127"/>
       <c r="V44" s="127"/>
-      <c r="W44" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X44" s="127"/>
-      <c r="Y44" s="127"/>
-      <c r="Z44" s="127"/>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="127"/>
-      <c r="AC44" s="127"/>
-      <c r="AD44" s="127"/>
-      <c r="AE44" s="127"/>
-      <c r="AF44" s="127"/>
-      <c r="AG44" s="127"/>
-      <c r="AH44" s="127"/>
-      <c r="AI44" s="127"/>
-      <c r="AJ44" s="127"/>
-      <c r="AK44" s="128"/>
+      <c r="W44" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X44" s="160"/>
+      <c r="Y44" s="160"/>
+      <c r="Z44" s="160"/>
+      <c r="AA44" s="160"/>
+      <c r="AB44" s="160"/>
+      <c r="AC44" s="160"/>
+      <c r="AD44" s="160"/>
+      <c r="AE44" s="160"/>
+      <c r="AF44" s="160"/>
+      <c r="AG44" s="160"/>
+      <c r="AH44" s="160"/>
+      <c r="AI44" s="160"/>
+      <c r="AJ44" s="160"/>
+      <c r="AK44" s="161"/>
       <c r="AL44" s="147" t="s">
         <v>145</v>
       </c>
@@ -46389,7 +46582,7 @@
       <c r="U45" s="139"/>
       <c r="V45" s="140"/>
       <c r="W45" s="138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X45" s="139"/>
       <c r="Y45" s="139"/>
@@ -46413,21 +46606,21 @@
       <c r="AO45" s="139"/>
       <c r="AP45" s="139"/>
       <c r="AQ45" s="140"/>
-      <c r="AR45" s="155" t="s">
+      <c r="AR45" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="AS45" s="156"/>
-      <c r="AT45" s="156"/>
-      <c r="AU45" s="157"/>
-      <c r="AV45" s="155"/>
-      <c r="AW45" s="156"/>
-      <c r="AX45" s="156"/>
-      <c r="AY45" s="157"/>
-      <c r="AZ45" s="155"/>
-      <c r="BA45" s="156"/>
-      <c r="BB45" s="157"/>
+      <c r="AS45" s="157"/>
+      <c r="AT45" s="157"/>
+      <c r="AU45" s="158"/>
+      <c r="AV45" s="156"/>
+      <c r="AW45" s="157"/>
+      <c r="AX45" s="157"/>
+      <c r="AY45" s="158"/>
+      <c r="AZ45" s="156"/>
+      <c r="BA45" s="157"/>
+      <c r="BB45" s="158"/>
       <c r="BC45" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BD45" s="40"/>
       <c r="BE45" s="40"/>
@@ -47148,7 +47341,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="W25" sqref="W25:AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -47916,12 +48109,12 @@
       <c r="AS10" s="125"/>
       <c r="AT10" s="125"/>
       <c r="AU10" s="125"/>
-      <c r="AV10" s="183" t="s">
+      <c r="AV10" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW10" s="183"/>
-      <c r="AX10" s="183"/>
-      <c r="AY10" s="183"/>
+      <c r="AW10" s="155"/>
+      <c r="AX10" s="155"/>
+      <c r="AY10" s="155"/>
       <c r="AZ10" s="125" t="s">
         <v>147</v>
       </c>
@@ -48025,12 +48218,12 @@
       <c r="AS11" s="125"/>
       <c r="AT11" s="125"/>
       <c r="AU11" s="125"/>
-      <c r="AV11" s="183" t="s">
+      <c r="AV11" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW11" s="183"/>
-      <c r="AX11" s="183"/>
-      <c r="AY11" s="183"/>
+      <c r="AW11" s="155"/>
+      <c r="AX11" s="155"/>
+      <c r="AY11" s="155"/>
       <c r="AZ11" s="125" t="s">
         <v>147</v>
       </c>
@@ -48134,19 +48327,19 @@
       <c r="AS12" s="125"/>
       <c r="AT12" s="125"/>
       <c r="AU12" s="125"/>
-      <c r="AV12" s="183" t="s">
+      <c r="AV12" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW12" s="183"/>
-      <c r="AX12" s="183"/>
-      <c r="AY12" s="183"/>
+      <c r="AW12" s="155"/>
+      <c r="AX12" s="155"/>
+      <c r="AY12" s="155"/>
       <c r="AZ12" s="125" t="s">
         <v>147</v>
       </c>
       <c r="BA12" s="125"/>
       <c r="BB12" s="125"/>
       <c r="BC12" s="126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD12" s="127"/>
       <c r="BE12" s="127"/>
@@ -48245,19 +48438,19 @@
       <c r="AS13" s="125"/>
       <c r="AT13" s="125"/>
       <c r="AU13" s="125"/>
-      <c r="AV13" s="183" t="s">
+      <c r="AV13" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW13" s="183"/>
-      <c r="AX13" s="183"/>
-      <c r="AY13" s="183"/>
+      <c r="AW13" s="155"/>
+      <c r="AX13" s="155"/>
+      <c r="AY13" s="155"/>
       <c r="AZ13" s="125" t="s">
         <v>147</v>
       </c>
       <c r="BA13" s="125"/>
       <c r="BB13" s="125"/>
       <c r="BC13" s="126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD13" s="127"/>
       <c r="BE13" s="127"/>
@@ -48309,7 +48502,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -48326,7 +48519,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -48356,12 +48549,12 @@
       <c r="AS14" s="125"/>
       <c r="AT14" s="125"/>
       <c r="AU14" s="125"/>
-      <c r="AV14" s="183" t="s">
+      <c r="AV14" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW14" s="183"/>
-      <c r="AX14" s="183"/>
-      <c r="AY14" s="183"/>
+      <c r="AW14" s="155"/>
+      <c r="AX14" s="155"/>
+      <c r="AY14" s="155"/>
       <c r="AZ14" s="125" t="s">
         <v>147</v>
       </c>
@@ -48435,7 +48628,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -48476,38 +48669,40 @@
       </c>
       <c r="BA15" s="125"/>
       <c r="BB15" s="125"/>
-      <c r="BC15" s="126"/>
-      <c r="BD15" s="127"/>
-      <c r="BE15" s="127"/>
-      <c r="BF15" s="127"/>
-      <c r="BG15" s="127"/>
-      <c r="BH15" s="127"/>
-      <c r="BI15" s="127"/>
-      <c r="BJ15" s="127"/>
-      <c r="BK15" s="127"/>
-      <c r="BL15" s="127"/>
-      <c r="BM15" s="127"/>
-      <c r="BN15" s="127"/>
-      <c r="BO15" s="127"/>
-      <c r="BP15" s="127"/>
-      <c r="BQ15" s="127"/>
-      <c r="BR15" s="127"/>
-      <c r="BS15" s="127"/>
-      <c r="BT15" s="127"/>
-      <c r="BU15" s="127"/>
-      <c r="BV15" s="127"/>
-      <c r="BW15" s="127"/>
-      <c r="BX15" s="127"/>
-      <c r="BY15" s="127"/>
-      <c r="BZ15" s="127"/>
-      <c r="CA15" s="127"/>
-      <c r="CB15" s="127"/>
-      <c r="CC15" s="127"/>
-      <c r="CD15" s="127"/>
-      <c r="CE15" s="127"/>
-      <c r="CF15" s="127"/>
-      <c r="CG15" s="127"/>
-      <c r="CH15" s="128"/>
+      <c r="BC15" s="159" t="s">
+        <v>346</v>
+      </c>
+      <c r="BD15" s="160"/>
+      <c r="BE15" s="160"/>
+      <c r="BF15" s="160"/>
+      <c r="BG15" s="160"/>
+      <c r="BH15" s="160"/>
+      <c r="BI15" s="160"/>
+      <c r="BJ15" s="160"/>
+      <c r="BK15" s="160"/>
+      <c r="BL15" s="160"/>
+      <c r="BM15" s="160"/>
+      <c r="BN15" s="160"/>
+      <c r="BO15" s="160"/>
+      <c r="BP15" s="160"/>
+      <c r="BQ15" s="160"/>
+      <c r="BR15" s="160"/>
+      <c r="BS15" s="160"/>
+      <c r="BT15" s="160"/>
+      <c r="BU15" s="160"/>
+      <c r="BV15" s="160"/>
+      <c r="BW15" s="160"/>
+      <c r="BX15" s="160"/>
+      <c r="BY15" s="160"/>
+      <c r="BZ15" s="160"/>
+      <c r="CA15" s="160"/>
+      <c r="CB15" s="160"/>
+      <c r="CC15" s="160"/>
+      <c r="CD15" s="160"/>
+      <c r="CE15" s="160"/>
+      <c r="CF15" s="160"/>
+      <c r="CG15" s="160"/>
+      <c r="CH15" s="161"/>
       <c r="CI15" s="48"/>
       <c r="CJ15" s="37"/>
       <c r="CK15" s="34"/>
@@ -48544,7 +48739,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X16" s="149"/>
       <c r="Y16" s="149"/>
@@ -48574,12 +48769,12 @@
       <c r="AS16" s="125"/>
       <c r="AT16" s="125"/>
       <c r="AU16" s="125"/>
-      <c r="AV16" s="183" t="s">
+      <c r="AV16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW16" s="183"/>
-      <c r="AX16" s="183"/>
-      <c r="AY16" s="183"/>
+      <c r="AW16" s="155"/>
+      <c r="AX16" s="155"/>
+      <c r="AY16" s="155"/>
       <c r="AZ16" s="125" t="s">
         <v>147</v>
       </c>
@@ -48636,7 +48831,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -48653,7 +48848,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
       <c r="W17" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X17" s="149"/>
       <c r="Y17" s="149"/>
@@ -48743,7 +48938,7 @@
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
       <c r="H18" s="126" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I18" s="127"/>
       <c r="J18" s="127"/>
@@ -48760,7 +48955,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="127"/>
       <c r="W18" s="148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X18" s="149"/>
       <c r="Y18" s="149"/>
@@ -49287,7 +49482,7 @@
       <c r="U23" s="139"/>
       <c r="V23" s="140"/>
       <c r="W23" s="148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X23" s="149"/>
       <c r="Y23" s="149"/>
@@ -49375,7 +49570,7 @@
       <c r="F24" s="125"/>
       <c r="G24" s="125"/>
       <c r="H24" s="126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="127"/>
       <c r="J24" s="127"/>
@@ -49498,23 +49693,23 @@
       <c r="T25" s="139"/>
       <c r="U25" s="139"/>
       <c r="V25" s="140"/>
-      <c r="W25" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="127"/>
-      <c r="AJ25" s="127"/>
-      <c r="AK25" s="128"/>
+      <c r="W25" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160"/>
+      <c r="AB25" s="160"/>
+      <c r="AC25" s="160"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="160"/>
+      <c r="AH25" s="160"/>
+      <c r="AI25" s="160"/>
+      <c r="AJ25" s="160"/>
+      <c r="AK25" s="161"/>
       <c r="AL25" s="147" t="s">
         <v>145</v>
       </c>
@@ -49586,95 +49781,95 @@
       </c>
       <c r="F26" s="125"/>
       <c r="G26" s="125"/>
-      <c r="H26" s="162" t="s">
+      <c r="H26" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="165" t="s">
-        <v>194</v>
-      </c>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="166"/>
-      <c r="AF26" s="166"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
-      <c r="AI26" s="166"/>
-      <c r="AJ26" s="166"/>
-      <c r="AK26" s="167"/>
-      <c r="AL26" s="168" t="s">
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="164"/>
+      <c r="AH26" s="164"/>
+      <c r="AI26" s="164"/>
+      <c r="AJ26" s="164"/>
+      <c r="AK26" s="165"/>
+      <c r="AL26" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="AM26" s="168"/>
-      <c r="AN26" s="168"/>
-      <c r="AO26" s="168"/>
-      <c r="AP26" s="168"/>
-      <c r="AQ26" s="168"/>
-      <c r="AR26" s="161" t="s">
+      <c r="AM26" s="169"/>
+      <c r="AN26" s="169"/>
+      <c r="AO26" s="169"/>
+      <c r="AP26" s="169"/>
+      <c r="AQ26" s="169"/>
+      <c r="AR26" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="AS26" s="161"/>
-      <c r="AT26" s="161"/>
-      <c r="AU26" s="161"/>
-      <c r="AV26" s="161"/>
-      <c r="AW26" s="161"/>
-      <c r="AX26" s="161"/>
-      <c r="AY26" s="161"/>
-      <c r="AZ26" s="161"/>
-      <c r="BA26" s="161"/>
-      <c r="BB26" s="161"/>
-      <c r="BC26" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD26" s="166"/>
-      <c r="BE26" s="166"/>
-      <c r="BF26" s="166"/>
-      <c r="BG26" s="166"/>
-      <c r="BH26" s="166"/>
-      <c r="BI26" s="166"/>
-      <c r="BJ26" s="166"/>
-      <c r="BK26" s="166"/>
-      <c r="BL26" s="166"/>
-      <c r="BM26" s="166"/>
-      <c r="BN26" s="166"/>
-      <c r="BO26" s="166"/>
-      <c r="BP26" s="166"/>
-      <c r="BQ26" s="166"/>
-      <c r="BR26" s="166"/>
-      <c r="BS26" s="166"/>
-      <c r="BT26" s="166"/>
-      <c r="BU26" s="166"/>
-      <c r="BV26" s="166"/>
-      <c r="BW26" s="166"/>
-      <c r="BX26" s="166"/>
-      <c r="BY26" s="166"/>
-      <c r="BZ26" s="166"/>
-      <c r="CA26" s="166"/>
-      <c r="CB26" s="166"/>
-      <c r="CC26" s="166"/>
-      <c r="CD26" s="166"/>
-      <c r="CE26" s="166"/>
-      <c r="CF26" s="166"/>
-      <c r="CG26" s="166"/>
-      <c r="CH26" s="167"/>
+      <c r="AS26" s="162"/>
+      <c r="AT26" s="162"/>
+      <c r="AU26" s="162"/>
+      <c r="AV26" s="162"/>
+      <c r="AW26" s="162"/>
+      <c r="AX26" s="162"/>
+      <c r="AY26" s="162"/>
+      <c r="AZ26" s="162"/>
+      <c r="BA26" s="162"/>
+      <c r="BB26" s="162"/>
+      <c r="BC26" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD26" s="164"/>
+      <c r="BE26" s="164"/>
+      <c r="BF26" s="164"/>
+      <c r="BG26" s="164"/>
+      <c r="BH26" s="164"/>
+      <c r="BI26" s="164"/>
+      <c r="BJ26" s="164"/>
+      <c r="BK26" s="164"/>
+      <c r="BL26" s="164"/>
+      <c r="BM26" s="164"/>
+      <c r="BN26" s="164"/>
+      <c r="BO26" s="164"/>
+      <c r="BP26" s="164"/>
+      <c r="BQ26" s="164"/>
+      <c r="BR26" s="164"/>
+      <c r="BS26" s="164"/>
+      <c r="BT26" s="164"/>
+      <c r="BU26" s="164"/>
+      <c r="BV26" s="164"/>
+      <c r="BW26" s="164"/>
+      <c r="BX26" s="164"/>
+      <c r="BY26" s="164"/>
+      <c r="BZ26" s="164"/>
+      <c r="CA26" s="164"/>
+      <c r="CB26" s="164"/>
+      <c r="CC26" s="164"/>
+      <c r="CD26" s="164"/>
+      <c r="CE26" s="164"/>
+      <c r="CF26" s="164"/>
+      <c r="CG26" s="164"/>
+      <c r="CH26" s="165"/>
       <c r="CI26" s="34"/>
       <c r="CJ26" s="34"/>
       <c r="CK26" s="34"/>
@@ -51366,7 +51561,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:CH26"/>
+      <selection activeCell="BZ8" sqref="BY8:BZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -51692,7 +51887,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -52358,7 +52553,7 @@
       <c r="BA12" s="125"/>
       <c r="BB12" s="125"/>
       <c r="BC12" s="126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD12" s="127"/>
       <c r="BE12" s="127"/>
@@ -52467,7 +52662,7 @@
       <c r="BA13" s="125"/>
       <c r="BB13" s="125"/>
       <c r="BC13" s="126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD13" s="127"/>
       <c r="BE13" s="127"/>
@@ -52519,7 +52714,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -52536,7 +52731,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -52643,7 +52838,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -52668,7 +52863,7 @@
       <c r="AP15" s="147"/>
       <c r="AQ15" s="147"/>
       <c r="AR15" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AS15" s="125"/>
       <c r="AT15" s="125"/>
@@ -52750,7 +52945,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X16" s="149"/>
       <c r="Y16" s="149"/>
@@ -52775,7 +52970,7 @@
       <c r="AP16" s="147"/>
       <c r="AQ16" s="147"/>
       <c r="AR16" s="125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS16" s="125"/>
       <c r="AT16" s="125"/>
@@ -52839,97 +53034,97 @@
       </c>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="140"/>
-      <c r="W17" s="148" t="s">
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="180"/>
+      <c r="W17" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="X17" s="195"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="195"/>
+      <c r="AB17" s="195"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="195"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="195"/>
+      <c r="AG17" s="195"/>
+      <c r="AH17" s="195"/>
+      <c r="AI17" s="195"/>
+      <c r="AJ17" s="195"/>
+      <c r="AK17" s="196"/>
+      <c r="AL17" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM17" s="184"/>
+      <c r="AN17" s="184"/>
+      <c r="AO17" s="184"/>
+      <c r="AP17" s="184"/>
+      <c r="AQ17" s="184"/>
+      <c r="AR17" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS17" s="155"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="155"/>
+      <c r="AV17" s="155"/>
+      <c r="AW17" s="155"/>
+      <c r="AX17" s="155"/>
+      <c r="AY17" s="155"/>
+      <c r="AZ17" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA17" s="155"/>
+      <c r="BB17" s="155"/>
+      <c r="BC17" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="149"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="150"/>
-      <c r="AL17" s="147" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM17" s="147"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="147"/>
-      <c r="AP17" s="147"/>
-      <c r="AQ17" s="147"/>
-      <c r="AR17" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA17" s="125"/>
-      <c r="BB17" s="125"/>
-      <c r="BC17" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD17" s="127"/>
-      <c r="BE17" s="127"/>
-      <c r="BF17" s="127"/>
-      <c r="BG17" s="127"/>
-      <c r="BH17" s="127"/>
-      <c r="BI17" s="127"/>
-      <c r="BJ17" s="127"/>
-      <c r="BK17" s="127"/>
-      <c r="BL17" s="127"/>
-      <c r="BM17" s="127"/>
-      <c r="BN17" s="127"/>
-      <c r="BO17" s="127"/>
-      <c r="BP17" s="127"/>
-      <c r="BQ17" s="127"/>
-      <c r="BR17" s="127"/>
-      <c r="BS17" s="127"/>
-      <c r="BT17" s="127"/>
-      <c r="BU17" s="127"/>
-      <c r="BV17" s="127"/>
-      <c r="BW17" s="127"/>
-      <c r="BX17" s="127"/>
-      <c r="BY17" s="127"/>
-      <c r="BZ17" s="127"/>
-      <c r="CA17" s="127"/>
-      <c r="CB17" s="127"/>
-      <c r="CC17" s="127"/>
-      <c r="CD17" s="127"/>
-      <c r="CE17" s="127"/>
-      <c r="CF17" s="127"/>
-      <c r="CG17" s="127"/>
-      <c r="CH17" s="128"/>
+      <c r="BD17" s="182"/>
+      <c r="BE17" s="182"/>
+      <c r="BF17" s="182"/>
+      <c r="BG17" s="182"/>
+      <c r="BH17" s="182"/>
+      <c r="BI17" s="182"/>
+      <c r="BJ17" s="182"/>
+      <c r="BK17" s="182"/>
+      <c r="BL17" s="182"/>
+      <c r="BM17" s="182"/>
+      <c r="BN17" s="182"/>
+      <c r="BO17" s="182"/>
+      <c r="BP17" s="182"/>
+      <c r="BQ17" s="182"/>
+      <c r="BR17" s="182"/>
+      <c r="BS17" s="182"/>
+      <c r="BT17" s="182"/>
+      <c r="BU17" s="182"/>
+      <c r="BV17" s="182"/>
+      <c r="BW17" s="182"/>
+      <c r="BX17" s="182"/>
+      <c r="BY17" s="182"/>
+      <c r="BZ17" s="182"/>
+      <c r="CA17" s="182"/>
+      <c r="CB17" s="182"/>
+      <c r="CC17" s="182"/>
+      <c r="CD17" s="182"/>
+      <c r="CE17" s="182"/>
+      <c r="CF17" s="182"/>
+      <c r="CG17" s="182"/>
+      <c r="CH17" s="183"/>
       <c r="CI17" s="48"/>
       <c r="CJ17" s="37"/>
       <c r="CK17" s="34"/>
@@ -52948,95 +53143,95 @@
       </c>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="138" t="s">
+      <c r="H18" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="148" t="s">
-        <v>210</v>
-      </c>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="149"/>
-      <c r="AI18" s="149"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="150"/>
-      <c r="AL18" s="147" t="s">
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="180"/>
+      <c r="W18" s="194" t="s">
+        <v>209</v>
+      </c>
+      <c r="X18" s="195"/>
+      <c r="Y18" s="195"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="195"/>
+      <c r="AG18" s="195"/>
+      <c r="AH18" s="195"/>
+      <c r="AI18" s="195"/>
+      <c r="AJ18" s="195"/>
+      <c r="AK18" s="196"/>
+      <c r="AL18" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="AM18" s="147"/>
-      <c r="AN18" s="147"/>
-      <c r="AO18" s="147"/>
-      <c r="AP18" s="147"/>
-      <c r="AQ18" s="147"/>
-      <c r="AR18" s="125" t="s">
+      <c r="AM18" s="184"/>
+      <c r="AN18" s="184"/>
+      <c r="AO18" s="184"/>
+      <c r="AP18" s="184"/>
+      <c r="AQ18" s="184"/>
+      <c r="AR18" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125" t="s">
+      <c r="AS18" s="155"/>
+      <c r="AT18" s="155"/>
+      <c r="AU18" s="155"/>
+      <c r="AV18" s="155"/>
+      <c r="AW18" s="155"/>
+      <c r="AX18" s="155"/>
+      <c r="AY18" s="155"/>
+      <c r="AZ18" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA18" s="125"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="126"/>
-      <c r="BD18" s="127"/>
-      <c r="BE18" s="127"/>
-      <c r="BF18" s="127"/>
-      <c r="BG18" s="127"/>
-      <c r="BH18" s="127"/>
-      <c r="BI18" s="127"/>
-      <c r="BJ18" s="127"/>
-      <c r="BK18" s="127"/>
-      <c r="BL18" s="127"/>
-      <c r="BM18" s="127"/>
-      <c r="BN18" s="127"/>
-      <c r="BO18" s="127"/>
-      <c r="BP18" s="127"/>
-      <c r="BQ18" s="127"/>
-      <c r="BR18" s="127"/>
-      <c r="BS18" s="127"/>
-      <c r="BT18" s="127"/>
-      <c r="BU18" s="127"/>
-      <c r="BV18" s="127"/>
-      <c r="BW18" s="127"/>
-      <c r="BX18" s="127"/>
-      <c r="BY18" s="127"/>
-      <c r="BZ18" s="127"/>
-      <c r="CA18" s="127"/>
-      <c r="CB18" s="127"/>
-      <c r="CC18" s="127"/>
-      <c r="CD18" s="127"/>
-      <c r="CE18" s="127"/>
-      <c r="CF18" s="127"/>
-      <c r="CG18" s="127"/>
-      <c r="CH18" s="128"/>
+      <c r="BA18" s="155"/>
+      <c r="BB18" s="155"/>
+      <c r="BC18" s="181"/>
+      <c r="BD18" s="182"/>
+      <c r="BE18" s="182"/>
+      <c r="BF18" s="182"/>
+      <c r="BG18" s="182"/>
+      <c r="BH18" s="182"/>
+      <c r="BI18" s="182"/>
+      <c r="BJ18" s="182"/>
+      <c r="BK18" s="182"/>
+      <c r="BL18" s="182"/>
+      <c r="BM18" s="182"/>
+      <c r="BN18" s="182"/>
+      <c r="BO18" s="182"/>
+      <c r="BP18" s="182"/>
+      <c r="BQ18" s="182"/>
+      <c r="BR18" s="182"/>
+      <c r="BS18" s="182"/>
+      <c r="BT18" s="182"/>
+      <c r="BU18" s="182"/>
+      <c r="BV18" s="182"/>
+      <c r="BW18" s="182"/>
+      <c r="BX18" s="182"/>
+      <c r="BY18" s="182"/>
+      <c r="BZ18" s="182"/>
+      <c r="CA18" s="182"/>
+      <c r="CB18" s="182"/>
+      <c r="CC18" s="182"/>
+      <c r="CD18" s="182"/>
+      <c r="CE18" s="182"/>
+      <c r="CF18" s="182"/>
+      <c r="CG18" s="182"/>
+      <c r="CH18" s="183"/>
       <c r="CI18" s="48"/>
       <c r="CJ18" s="37"/>
       <c r="CK18" s="34"/>
@@ -53056,7 +53251,7 @@
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I19" s="127"/>
       <c r="J19" s="127"/>
@@ -53073,7 +53268,7 @@
       <c r="U19" s="127"/>
       <c r="V19" s="127"/>
       <c r="W19" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X19" s="149"/>
       <c r="Y19" s="149"/>
@@ -53180,7 +53375,7 @@
       <c r="U20" s="127"/>
       <c r="V20" s="127"/>
       <c r="W20" s="148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X20" s="149"/>
       <c r="Y20" s="149"/>
@@ -53220,7 +53415,7 @@
       <c r="BA20" s="125"/>
       <c r="BB20" s="125"/>
       <c r="BC20" s="126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BD20" s="127"/>
       <c r="BE20" s="127"/>
@@ -53289,7 +53484,7 @@
       <c r="U21" s="139"/>
       <c r="V21" s="140"/>
       <c r="W21" s="148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X21" s="149"/>
       <c r="Y21" s="149"/>
@@ -53396,7 +53591,7 @@
       <c r="U22" s="139"/>
       <c r="V22" s="140"/>
       <c r="W22" s="148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X22" s="149"/>
       <c r="Y22" s="149"/>
@@ -53421,7 +53616,7 @@
       <c r="AP22" s="147"/>
       <c r="AQ22" s="147"/>
       <c r="AR22" s="125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AS22" s="125"/>
       <c r="AT22" s="125"/>
@@ -53609,23 +53804,23 @@
       <c r="T24" s="139"/>
       <c r="U24" s="139"/>
       <c r="V24" s="140"/>
-      <c r="W24" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="127"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="128"/>
+      <c r="W24" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="160"/>
+      <c r="AK24" s="161"/>
       <c r="AL24" s="147" t="s">
         <v>145</v>
       </c>
@@ -53697,95 +53892,95 @@
       </c>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="162" t="s">
+      <c r="H25" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="165" t="s">
-        <v>194</v>
-      </c>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="166"/>
-      <c r="AF25" s="166"/>
-      <c r="AG25" s="166"/>
-      <c r="AH25" s="166"/>
-      <c r="AI25" s="166"/>
-      <c r="AJ25" s="166"/>
-      <c r="AK25" s="167"/>
-      <c r="AL25" s="168" t="s">
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="167"/>
+      <c r="S25" s="167"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="164"/>
+      <c r="AI25" s="164"/>
+      <c r="AJ25" s="164"/>
+      <c r="AK25" s="165"/>
+      <c r="AL25" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="AM25" s="168"/>
-      <c r="AN25" s="168"/>
-      <c r="AO25" s="168"/>
-      <c r="AP25" s="168"/>
-      <c r="AQ25" s="168"/>
-      <c r="AR25" s="161" t="s">
+      <c r="AM25" s="169"/>
+      <c r="AN25" s="169"/>
+      <c r="AO25" s="169"/>
+      <c r="AP25" s="169"/>
+      <c r="AQ25" s="169"/>
+      <c r="AR25" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="AS25" s="161"/>
-      <c r="AT25" s="161"/>
-      <c r="AU25" s="161"/>
-      <c r="AV25" s="161"/>
-      <c r="AW25" s="161"/>
-      <c r="AX25" s="161"/>
-      <c r="AY25" s="161"/>
-      <c r="AZ25" s="161"/>
-      <c r="BA25" s="161"/>
-      <c r="BB25" s="161"/>
-      <c r="BC25" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD25" s="166"/>
-      <c r="BE25" s="166"/>
-      <c r="BF25" s="166"/>
-      <c r="BG25" s="166"/>
-      <c r="BH25" s="166"/>
-      <c r="BI25" s="166"/>
-      <c r="BJ25" s="166"/>
-      <c r="BK25" s="166"/>
-      <c r="BL25" s="166"/>
-      <c r="BM25" s="166"/>
-      <c r="BN25" s="166"/>
-      <c r="BO25" s="166"/>
-      <c r="BP25" s="166"/>
-      <c r="BQ25" s="166"/>
-      <c r="BR25" s="166"/>
-      <c r="BS25" s="166"/>
-      <c r="BT25" s="166"/>
-      <c r="BU25" s="166"/>
-      <c r="BV25" s="166"/>
-      <c r="BW25" s="166"/>
-      <c r="BX25" s="166"/>
-      <c r="BY25" s="166"/>
-      <c r="BZ25" s="166"/>
-      <c r="CA25" s="166"/>
-      <c r="CB25" s="166"/>
-      <c r="CC25" s="166"/>
-      <c r="CD25" s="166"/>
-      <c r="CE25" s="166"/>
-      <c r="CF25" s="166"/>
-      <c r="CG25" s="166"/>
-      <c r="CH25" s="167"/>
+      <c r="AS25" s="162"/>
+      <c r="AT25" s="162"/>
+      <c r="AU25" s="162"/>
+      <c r="AV25" s="162"/>
+      <c r="AW25" s="162"/>
+      <c r="AX25" s="162"/>
+      <c r="AY25" s="162"/>
+      <c r="AZ25" s="162"/>
+      <c r="BA25" s="162"/>
+      <c r="BB25" s="162"/>
+      <c r="BC25" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD25" s="164"/>
+      <c r="BE25" s="164"/>
+      <c r="BF25" s="164"/>
+      <c r="BG25" s="164"/>
+      <c r="BH25" s="164"/>
+      <c r="BI25" s="164"/>
+      <c r="BJ25" s="164"/>
+      <c r="BK25" s="164"/>
+      <c r="BL25" s="164"/>
+      <c r="BM25" s="164"/>
+      <c r="BN25" s="164"/>
+      <c r="BO25" s="164"/>
+      <c r="BP25" s="164"/>
+      <c r="BQ25" s="164"/>
+      <c r="BR25" s="164"/>
+      <c r="BS25" s="164"/>
+      <c r="BT25" s="164"/>
+      <c r="BU25" s="164"/>
+      <c r="BV25" s="164"/>
+      <c r="BW25" s="164"/>
+      <c r="BX25" s="164"/>
+      <c r="BY25" s="164"/>
+      <c r="BZ25" s="164"/>
+      <c r="CA25" s="164"/>
+      <c r="CB25" s="164"/>
+      <c r="CC25" s="164"/>
+      <c r="CD25" s="164"/>
+      <c r="CE25" s="164"/>
+      <c r="CF25" s="164"/>
+      <c r="CG25" s="164"/>
+      <c r="CH25" s="165"/>
       <c r="CI25" s="34"/>
       <c r="CJ25" s="34"/>
       <c r="CK25" s="34"/>
@@ -53804,97 +53999,97 @@
       </c>
       <c r="F26" s="125"/>
       <c r="G26" s="125"/>
-      <c r="H26" s="170" t="s">
+      <c r="H26" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="170" t="s">
         <v>345</v>
       </c>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="171"/>
-      <c r="S26" s="171"/>
-      <c r="T26" s="171"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="171"/>
-      <c r="W26" s="173" t="s">
-        <v>346</v>
-      </c>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="174"/>
-      <c r="AI26" s="174"/>
-      <c r="AJ26" s="174"/>
-      <c r="AK26" s="175"/>
-      <c r="AL26" s="176" t="s">
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="171"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="171"/>
+      <c r="AJ26" s="171"/>
+      <c r="AK26" s="172"/>
+      <c r="AL26" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="AM26" s="176"/>
-      <c r="AN26" s="176"/>
-      <c r="AO26" s="176"/>
-      <c r="AP26" s="176"/>
-      <c r="AQ26" s="176"/>
-      <c r="AR26" s="169" t="s">
+      <c r="AM26" s="173"/>
+      <c r="AN26" s="173"/>
+      <c r="AO26" s="173"/>
+      <c r="AP26" s="173"/>
+      <c r="AQ26" s="173"/>
+      <c r="AR26" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="AS26" s="169"/>
-      <c r="AT26" s="169"/>
-      <c r="AU26" s="169"/>
-      <c r="AV26" s="169" t="s">
-        <v>347</v>
-      </c>
-      <c r="AW26" s="169"/>
-      <c r="AX26" s="169"/>
-      <c r="AY26" s="169"/>
-      <c r="AZ26" s="169"/>
-      <c r="BA26" s="169"/>
-      <c r="BB26" s="169"/>
-      <c r="BC26" s="170" t="s">
-        <v>348</v>
-      </c>
-      <c r="BD26" s="171"/>
-      <c r="BE26" s="171"/>
-      <c r="BF26" s="171"/>
-      <c r="BG26" s="171"/>
-      <c r="BH26" s="171"/>
-      <c r="BI26" s="171"/>
-      <c r="BJ26" s="171"/>
-      <c r="BK26" s="171"/>
-      <c r="BL26" s="171"/>
-      <c r="BM26" s="171"/>
-      <c r="BN26" s="171"/>
-      <c r="BO26" s="171"/>
-      <c r="BP26" s="171"/>
-      <c r="BQ26" s="171"/>
-      <c r="BR26" s="171"/>
-      <c r="BS26" s="171"/>
-      <c r="BT26" s="171"/>
-      <c r="BU26" s="171"/>
-      <c r="BV26" s="171"/>
-      <c r="BW26" s="171"/>
-      <c r="BX26" s="171"/>
-      <c r="BY26" s="171"/>
-      <c r="BZ26" s="171"/>
-      <c r="CA26" s="171"/>
-      <c r="CB26" s="171"/>
-      <c r="CC26" s="171"/>
-      <c r="CD26" s="171"/>
-      <c r="CE26" s="171"/>
-      <c r="CF26" s="171"/>
-      <c r="CG26" s="171"/>
-      <c r="CH26" s="172"/>
+      <c r="AS26" s="174"/>
+      <c r="AT26" s="174"/>
+      <c r="AU26" s="174"/>
+      <c r="AV26" s="174" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW26" s="174"/>
+      <c r="AX26" s="174"/>
+      <c r="AY26" s="174"/>
+      <c r="AZ26" s="174"/>
+      <c r="BA26" s="174"/>
+      <c r="BB26" s="174"/>
+      <c r="BC26" s="159" t="s">
+        <v>344</v>
+      </c>
+      <c r="BD26" s="160"/>
+      <c r="BE26" s="160"/>
+      <c r="BF26" s="160"/>
+      <c r="BG26" s="160"/>
+      <c r="BH26" s="160"/>
+      <c r="BI26" s="160"/>
+      <c r="BJ26" s="160"/>
+      <c r="BK26" s="160"/>
+      <c r="BL26" s="160"/>
+      <c r="BM26" s="160"/>
+      <c r="BN26" s="160"/>
+      <c r="BO26" s="160"/>
+      <c r="BP26" s="160"/>
+      <c r="BQ26" s="160"/>
+      <c r="BR26" s="160"/>
+      <c r="BS26" s="160"/>
+      <c r="BT26" s="160"/>
+      <c r="BU26" s="160"/>
+      <c r="BV26" s="160"/>
+      <c r="BW26" s="160"/>
+      <c r="BX26" s="160"/>
+      <c r="BY26" s="160"/>
+      <c r="BZ26" s="160"/>
+      <c r="CA26" s="160"/>
+      <c r="CB26" s="160"/>
+      <c r="CC26" s="160"/>
+      <c r="CD26" s="160"/>
+      <c r="CE26" s="160"/>
+      <c r="CF26" s="160"/>
+      <c r="CG26" s="160"/>
+      <c r="CH26" s="161"/>
       <c r="CI26" s="34"/>
       <c r="CJ26" s="34"/>
       <c r="CK26" s="34"/>
@@ -53928,21 +54123,21 @@
       <c r="T27" s="127"/>
       <c r="U27" s="127"/>
       <c r="V27" s="127"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="159"/>
-      <c r="AB27" s="159"/>
-      <c r="AC27" s="159"/>
-      <c r="AD27" s="159"/>
-      <c r="AE27" s="159"/>
-      <c r="AF27" s="159"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="159"/>
-      <c r="AJ27" s="159"/>
-      <c r="AK27" s="160"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="176"/>
+      <c r="Y27" s="176"/>
+      <c r="Z27" s="176"/>
+      <c r="AA27" s="176"/>
+      <c r="AB27" s="176"/>
+      <c r="AC27" s="176"/>
+      <c r="AD27" s="176"/>
+      <c r="AE27" s="176"/>
+      <c r="AF27" s="176"/>
+      <c r="AG27" s="176"/>
+      <c r="AH27" s="176"/>
+      <c r="AI27" s="176"/>
+      <c r="AJ27" s="176"/>
+      <c r="AK27" s="177"/>
       <c r="AL27" s="147"/>
       <c r="AM27" s="147"/>
       <c r="AN27" s="147"/>
@@ -55578,6 +55773,7 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="42" min="1" max="93" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -55586,7 +55782,7 @@
   <dimension ref="B1:CP41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+      <selection activeCell="W33" sqref="W33:AK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
@@ -55813,7 +56009,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -55912,7 +56108,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -56354,17 +56550,17 @@
       <c r="AS10" s="125"/>
       <c r="AT10" s="125"/>
       <c r="AU10" s="125"/>
-      <c r="AV10" s="125" t="s">
+      <c r="AV10" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="125"/>
-      <c r="AY10" s="125"/>
-      <c r="AZ10" s="125" t="s">
+      <c r="AW10" s="155"/>
+      <c r="AX10" s="155"/>
+      <c r="AY10" s="155"/>
+      <c r="AZ10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA10" s="125"/>
-      <c r="BB10" s="125"/>
+      <c r="BA10" s="155"/>
+      <c r="BB10" s="155"/>
       <c r="BC10" s="126"/>
       <c r="BD10" s="127"/>
       <c r="BE10" s="127"/>
@@ -56463,17 +56659,17 @@
       <c r="AS11" s="125"/>
       <c r="AT11" s="125"/>
       <c r="AU11" s="125"/>
-      <c r="AV11" s="125" t="s">
+      <c r="AV11" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW11" s="125"/>
-      <c r="AX11" s="125"/>
-      <c r="AY11" s="125"/>
-      <c r="AZ11" s="125" t="s">
+      <c r="AW11" s="155"/>
+      <c r="AX11" s="155"/>
+      <c r="AY11" s="155"/>
+      <c r="AZ11" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA11" s="125"/>
-      <c r="BB11" s="125"/>
+      <c r="BA11" s="155"/>
+      <c r="BB11" s="155"/>
       <c r="BC11" s="126"/>
       <c r="BD11" s="127"/>
       <c r="BE11" s="127"/>
@@ -56572,19 +56768,19 @@
       <c r="AS12" s="125"/>
       <c r="AT12" s="125"/>
       <c r="AU12" s="125"/>
-      <c r="AV12" s="125" t="s">
+      <c r="AV12" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW12" s="125"/>
-      <c r="AX12" s="125"/>
-      <c r="AY12" s="125"/>
-      <c r="AZ12" s="125" t="s">
+      <c r="AW12" s="155"/>
+      <c r="AX12" s="155"/>
+      <c r="AY12" s="155"/>
+      <c r="AZ12" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA12" s="125"/>
-      <c r="BB12" s="125"/>
+      <c r="BA12" s="155"/>
+      <c r="BB12" s="155"/>
       <c r="BC12" s="126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD12" s="127"/>
       <c r="BE12" s="127"/>
@@ -56683,19 +56879,19 @@
       <c r="AS13" s="125"/>
       <c r="AT13" s="125"/>
       <c r="AU13" s="125"/>
-      <c r="AV13" s="125" t="s">
+      <c r="AV13" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW13" s="125"/>
-      <c r="AX13" s="125"/>
-      <c r="AY13" s="125"/>
-      <c r="AZ13" s="125" t="s">
+      <c r="AW13" s="155"/>
+      <c r="AX13" s="155"/>
+      <c r="AY13" s="155"/>
+      <c r="AZ13" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA13" s="125"/>
-      <c r="BB13" s="125"/>
+      <c r="BA13" s="155"/>
+      <c r="BB13" s="155"/>
       <c r="BC13" s="126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD13" s="127"/>
       <c r="BE13" s="127"/>
@@ -56747,7 +56943,7 @@
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
       <c r="H14" s="126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
@@ -56764,7 +56960,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X14" s="149"/>
       <c r="Y14" s="149"/>
@@ -56794,17 +56990,17 @@
       <c r="AS14" s="125"/>
       <c r="AT14" s="125"/>
       <c r="AU14" s="125"/>
-      <c r="AV14" s="125" t="s">
+      <c r="AV14" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW14" s="125"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="125" t="s">
+      <c r="AW14" s="155"/>
+      <c r="AX14" s="155"/>
+      <c r="AY14" s="155"/>
+      <c r="AZ14" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA14" s="125"/>
-      <c r="BB14" s="125"/>
+      <c r="BA14" s="155"/>
+      <c r="BB14" s="155"/>
       <c r="BC14" s="126"/>
       <c r="BD14" s="127"/>
       <c r="BE14" s="127"/>
@@ -56873,7 +57069,7 @@
       <c r="U15" s="127"/>
       <c r="V15" s="127"/>
       <c r="W15" s="148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X15" s="149"/>
       <c r="Y15" s="149"/>
@@ -56903,17 +57099,17 @@
       <c r="AS15" s="125"/>
       <c r="AT15" s="125"/>
       <c r="AU15" s="125"/>
-      <c r="AV15" s="125" t="s">
+      <c r="AV15" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125" t="s">
+      <c r="AW15" s="155"/>
+      <c r="AX15" s="155"/>
+      <c r="AY15" s="155"/>
+      <c r="AZ15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA15" s="125"/>
-      <c r="BB15" s="125"/>
+      <c r="BA15" s="155"/>
+      <c r="BB15" s="155"/>
       <c r="BC15" s="126"/>
       <c r="BD15" s="127"/>
       <c r="BE15" s="127"/>
@@ -56982,7 +57178,7 @@
       <c r="U16" s="127"/>
       <c r="V16" s="127"/>
       <c r="W16" s="148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X16" s="149"/>
       <c r="Y16" s="149"/>
@@ -57012,17 +57208,17 @@
       <c r="AS16" s="125"/>
       <c r="AT16" s="125"/>
       <c r="AU16" s="125"/>
-      <c r="AV16" s="125" t="s">
+      <c r="AV16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="125"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="125" t="s">
+      <c r="AW16" s="155"/>
+      <c r="AX16" s="155"/>
+      <c r="AY16" s="155"/>
+      <c r="AZ16" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="BA16" s="125"/>
-      <c r="BB16" s="125"/>
+      <c r="BA16" s="155"/>
+      <c r="BB16" s="155"/>
       <c r="BC16" s="126"/>
       <c r="BD16" s="127"/>
       <c r="BE16" s="127"/>
@@ -57074,7 +57270,7 @@
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
       <c r="H17" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="127"/>
@@ -57091,7 +57287,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="127"/>
       <c r="W17" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X17" s="149"/>
       <c r="Y17" s="149"/>
@@ -57125,11 +57321,11 @@
       <c r="AW17" s="125"/>
       <c r="AX17" s="125"/>
       <c r="AY17" s="125"/>
-      <c r="AZ17" s="125" t="s">
+      <c r="AZ17" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="BA17" s="125"/>
-      <c r="BB17" s="125"/>
+      <c r="BA17" s="174"/>
+      <c r="BB17" s="174"/>
       <c r="BC17" s="126"/>
       <c r="BD17" s="127"/>
       <c r="BE17" s="127"/>
@@ -57198,7 +57394,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="127"/>
       <c r="W18" s="148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X18" s="149"/>
       <c r="Y18" s="149"/>
@@ -57232,13 +57428,13 @@
       <c r="AW18" s="125"/>
       <c r="AX18" s="125"/>
       <c r="AY18" s="125"/>
-      <c r="AZ18" s="125" t="s">
+      <c r="AZ18" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="BA18" s="125"/>
-      <c r="BB18" s="125"/>
+      <c r="BA18" s="174"/>
+      <c r="BB18" s="174"/>
       <c r="BC18" s="126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BD18" s="127"/>
       <c r="BE18" s="127"/>
@@ -57307,7 +57503,7 @@
       <c r="U19" s="127"/>
       <c r="V19" s="127"/>
       <c r="W19" s="148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X19" s="149"/>
       <c r="Y19" s="149"/>
@@ -57341,11 +57537,11 @@
       <c r="AW19" s="125"/>
       <c r="AX19" s="125"/>
       <c r="AY19" s="125"/>
-      <c r="AZ19" s="125" t="s">
+      <c r="AZ19" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="BA19" s="125"/>
-      <c r="BB19" s="125"/>
+      <c r="BA19" s="174"/>
+      <c r="BB19" s="174"/>
       <c r="BC19" s="126"/>
       <c r="BD19" s="127"/>
       <c r="BE19" s="127"/>
@@ -57414,7 +57610,7 @@
       <c r="U20" s="139"/>
       <c r="V20" s="140"/>
       <c r="W20" s="126" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="X20" s="127"/>
       <c r="Y20" s="127"/>
@@ -57439,7 +57635,7 @@
       <c r="AP20" s="147"/>
       <c r="AQ20" s="147"/>
       <c r="AR20" s="125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AS20" s="125"/>
       <c r="AT20" s="125"/>
@@ -57519,7 +57715,7 @@
       <c r="U21" s="139"/>
       <c r="V21" s="140"/>
       <c r="W21" s="148" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="X21" s="149"/>
       <c r="Y21" s="149"/>
@@ -57544,7 +57740,7 @@
       <c r="AP21" s="147"/>
       <c r="AQ21" s="147"/>
       <c r="AR21" s="125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AS21" s="125"/>
       <c r="AT21" s="125"/>
@@ -57624,7 +57820,7 @@
       <c r="U22" s="139"/>
       <c r="V22" s="140"/>
       <c r="W22" s="148" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X22" s="149"/>
       <c r="Y22" s="149"/>
@@ -57662,7 +57858,7 @@
       <c r="BA22" s="125"/>
       <c r="BB22" s="125"/>
       <c r="BC22" s="126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BD22" s="127"/>
       <c r="BE22" s="127"/>
@@ -57731,7 +57927,7 @@
       <c r="U23" s="139"/>
       <c r="V23" s="140"/>
       <c r="W23" s="148" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X23" s="149"/>
       <c r="Y23" s="149"/>
@@ -57756,7 +57952,7 @@
       <c r="AP23" s="147"/>
       <c r="AQ23" s="147"/>
       <c r="AR23" s="125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AS23" s="125"/>
       <c r="AT23" s="125"/>
@@ -57836,7 +58032,7 @@
       <c r="U24" s="139"/>
       <c r="V24" s="140"/>
       <c r="W24" s="148" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X24" s="149"/>
       <c r="Y24" s="149"/>
@@ -57861,7 +58057,7 @@
       <c r="AP24" s="147"/>
       <c r="AQ24" s="147"/>
       <c r="AR24" s="125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AS24" s="125"/>
       <c r="AT24" s="125"/>
@@ -57941,7 +58137,7 @@
       <c r="U25" s="139"/>
       <c r="V25" s="140"/>
       <c r="W25" s="148" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X25" s="149"/>
       <c r="Y25" s="149"/>
@@ -57979,7 +58175,7 @@
       <c r="BA25" s="125"/>
       <c r="BB25" s="125"/>
       <c r="BC25" s="126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BD25" s="127"/>
       <c r="BE25" s="127"/>
@@ -58048,7 +58244,7 @@
       <c r="U26" s="127"/>
       <c r="V26" s="127"/>
       <c r="W26" s="148" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="X26" s="149"/>
       <c r="Y26" s="149"/>
@@ -58153,7 +58349,7 @@
       <c r="U27" s="127"/>
       <c r="V27" s="127"/>
       <c r="W27" s="148" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X27" s="149"/>
       <c r="Y27" s="149"/>
@@ -58178,7 +58374,7 @@
       <c r="AP27" s="147"/>
       <c r="AQ27" s="147"/>
       <c r="AR27" s="125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AS27" s="125"/>
       <c r="AT27" s="125"/>
@@ -58258,7 +58454,7 @@
       <c r="U28" s="127"/>
       <c r="V28" s="127"/>
       <c r="W28" s="126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X28" s="127"/>
       <c r="Y28" s="127"/>
@@ -58296,7 +58492,7 @@
       <c r="BA28" s="125"/>
       <c r="BB28" s="125"/>
       <c r="BC28" s="126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BD28" s="127"/>
       <c r="BE28" s="127"/>
@@ -58365,7 +58561,7 @@
       <c r="U29" s="127"/>
       <c r="V29" s="127"/>
       <c r="W29" s="126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X29" s="127"/>
       <c r="Y29" s="127"/>
@@ -58470,7 +58666,7 @@
       <c r="U30" s="127"/>
       <c r="V30" s="127"/>
       <c r="W30" s="126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X30" s="127"/>
       <c r="Y30" s="127"/>
@@ -58508,7 +58704,7 @@
       <c r="BA30" s="125"/>
       <c r="BB30" s="125"/>
       <c r="BC30" s="126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BD30" s="127"/>
       <c r="BE30" s="127"/>
@@ -58577,7 +58773,7 @@
       <c r="U31" s="127"/>
       <c r="V31" s="127"/>
       <c r="W31" s="126" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X31" s="127"/>
       <c r="Y31" s="127"/>
@@ -58602,7 +58798,7 @@
       <c r="AP31" s="147"/>
       <c r="AQ31" s="147"/>
       <c r="AR31" s="125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AS31" s="125"/>
       <c r="AT31" s="125"/>
@@ -58788,23 +58984,23 @@
       <c r="T33" s="139"/>
       <c r="U33" s="139"/>
       <c r="V33" s="140"/>
-      <c r="W33" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="127"/>
-      <c r="AJ33" s="127"/>
-      <c r="AK33" s="128"/>
+      <c r="W33" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="160"/>
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="160"/>
+      <c r="AJ33" s="160"/>
+      <c r="AK33" s="161"/>
       <c r="AL33" s="147" t="s">
         <v>145</v>
       </c>
@@ -58894,7 +59090,7 @@
       <c r="U34" s="139"/>
       <c r="V34" s="140"/>
       <c r="W34" s="126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X34" s="127"/>
       <c r="Y34" s="127"/>
@@ -58932,7 +59128,7 @@
       <c r="BA34" s="125"/>
       <c r="BB34" s="125"/>
       <c r="BC34" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BD34" s="127"/>
       <c r="BE34" s="127"/>
@@ -58983,85 +59179,99 @@
       </c>
       <c r="F35" s="125"/>
       <c r="G35" s="125"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="126"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="127"/>
-      <c r="AC35" s="127"/>
-      <c r="AD35" s="127"/>
-      <c r="AE35" s="127"/>
-      <c r="AF35" s="127"/>
-      <c r="AG35" s="127"/>
-      <c r="AH35" s="127"/>
-      <c r="AI35" s="127"/>
-      <c r="AJ35" s="127"/>
-      <c r="AK35" s="128"/>
-      <c r="AL35" s="147"/>
-      <c r="AM35" s="147"/>
-      <c r="AN35" s="147"/>
-      <c r="AO35" s="147"/>
-      <c r="AP35" s="147"/>
-      <c r="AQ35" s="147"/>
-      <c r="AR35" s="125"/>
-      <c r="AS35" s="125"/>
-      <c r="AT35" s="125"/>
-      <c r="AU35" s="125"/>
-      <c r="AV35" s="125"/>
-      <c r="AW35" s="125"/>
-      <c r="AX35" s="125"/>
-      <c r="AY35" s="125"/>
-      <c r="AZ35" s="125"/>
-      <c r="BA35" s="125"/>
-      <c r="BB35" s="125"/>
-      <c r="BC35" s="126"/>
-      <c r="BD35" s="127"/>
-      <c r="BE35" s="127"/>
-      <c r="BF35" s="127"/>
-      <c r="BG35" s="127"/>
-      <c r="BH35" s="127"/>
-      <c r="BI35" s="127"/>
-      <c r="BJ35" s="127"/>
-      <c r="BK35" s="127"/>
-      <c r="BL35" s="127"/>
-      <c r="BM35" s="127"/>
-      <c r="BN35" s="127"/>
-      <c r="BO35" s="127"/>
-      <c r="BP35" s="127"/>
-      <c r="BQ35" s="127"/>
-      <c r="BR35" s="127"/>
-      <c r="BS35" s="127"/>
-      <c r="BT35" s="127"/>
-      <c r="BU35" s="127"/>
-      <c r="BV35" s="127"/>
-      <c r="BW35" s="127"/>
-      <c r="BX35" s="127"/>
-      <c r="BY35" s="127"/>
-      <c r="BZ35" s="127"/>
-      <c r="CA35" s="127"/>
-      <c r="CB35" s="127"/>
-      <c r="CC35" s="127"/>
-      <c r="CD35" s="127"/>
-      <c r="CE35" s="127"/>
-      <c r="CF35" s="127"/>
-      <c r="CG35" s="127"/>
-      <c r="CH35" s="128"/>
+      <c r="H35" s="159" t="s">
+        <v>347</v>
+      </c>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="160"/>
+      <c r="R35" s="160"/>
+      <c r="S35" s="160"/>
+      <c r="T35" s="160"/>
+      <c r="U35" s="160"/>
+      <c r="V35" s="160"/>
+      <c r="W35" s="159" t="s">
+        <v>349</v>
+      </c>
+      <c r="X35" s="160"/>
+      <c r="Y35" s="160"/>
+      <c r="Z35" s="160"/>
+      <c r="AA35" s="160"/>
+      <c r="AB35" s="160"/>
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="160"/>
+      <c r="AE35" s="160"/>
+      <c r="AF35" s="160"/>
+      <c r="AG35" s="160"/>
+      <c r="AH35" s="160"/>
+      <c r="AI35" s="160"/>
+      <c r="AJ35" s="160"/>
+      <c r="AK35" s="161"/>
+      <c r="AL35" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM35" s="173"/>
+      <c r="AN35" s="173"/>
+      <c r="AO35" s="173"/>
+      <c r="AP35" s="173"/>
+      <c r="AQ35" s="173"/>
+      <c r="AR35" s="174" t="s">
+        <v>350</v>
+      </c>
+      <c r="AS35" s="174"/>
+      <c r="AT35" s="174"/>
+      <c r="AU35" s="174"/>
+      <c r="AV35" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW35" s="174"/>
+      <c r="AX35" s="174"/>
+      <c r="AY35" s="174"/>
+      <c r="AZ35" s="174" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA35" s="174"/>
+      <c r="BB35" s="174"/>
+      <c r="BC35" s="159" t="s">
+        <v>352</v>
+      </c>
+      <c r="BD35" s="160"/>
+      <c r="BE35" s="160"/>
+      <c r="BF35" s="160"/>
+      <c r="BG35" s="160"/>
+      <c r="BH35" s="160"/>
+      <c r="BI35" s="160"/>
+      <c r="BJ35" s="160"/>
+      <c r="BK35" s="160"/>
+      <c r="BL35" s="160"/>
+      <c r="BM35" s="160"/>
+      <c r="BN35" s="160"/>
+      <c r="BO35" s="160"/>
+      <c r="BP35" s="160"/>
+      <c r="BQ35" s="160"/>
+      <c r="BR35" s="160"/>
+      <c r="BS35" s="160"/>
+      <c r="BT35" s="160"/>
+      <c r="BU35" s="160"/>
+      <c r="BV35" s="160"/>
+      <c r="BW35" s="160"/>
+      <c r="BX35" s="160"/>
+      <c r="BY35" s="160"/>
+      <c r="BZ35" s="160"/>
+      <c r="CA35" s="160"/>
+      <c r="CB35" s="160"/>
+      <c r="CC35" s="160"/>
+      <c r="CD35" s="160"/>
+      <c r="CE35" s="160"/>
+      <c r="CF35" s="160"/>
+      <c r="CG35" s="160"/>
+      <c r="CH35" s="161"/>
       <c r="CI35" s="34"/>
       <c r="CJ35" s="34"/>
       <c r="CK35" s="34"/>
@@ -59879,7 +60089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CP41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15:AK15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="12"/>
   <cols>
@@ -60105,7 +60317,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
@@ -60204,7 +60416,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -60708,7 +60920,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
       <c r="H11" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I11" s="127"/>
       <c r="J11" s="127"/>
@@ -60725,7 +60937,7 @@
       <c r="U11" s="127"/>
       <c r="V11" s="127"/>
       <c r="W11" s="148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X11" s="149"/>
       <c r="Y11" s="149"/>
@@ -60815,7 +61027,7 @@
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
       <c r="H12" s="126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I12" s="127"/>
       <c r="J12" s="127"/>
@@ -60857,7 +61069,7 @@
       <c r="AP12" s="147"/>
       <c r="AQ12" s="147"/>
       <c r="AR12" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS12" s="125"/>
       <c r="AT12" s="125"/>
@@ -60922,7 +61134,7 @@
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -60939,7 +61151,7 @@
       <c r="U13" s="127"/>
       <c r="V13" s="127"/>
       <c r="W13" s="148" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X13" s="149"/>
       <c r="Y13" s="149"/>
@@ -60964,7 +61176,7 @@
       <c r="AP13" s="147"/>
       <c r="AQ13" s="147"/>
       <c r="AR13" s="125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS13" s="125"/>
       <c r="AT13" s="125"/>
@@ -61152,23 +61364,23 @@
       <c r="T15" s="139"/>
       <c r="U15" s="139"/>
       <c r="V15" s="140"/>
-      <c r="W15" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="127"/>
-      <c r="AG15" s="127"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="127"/>
-      <c r="AJ15" s="127"/>
-      <c r="AK15" s="128"/>
+      <c r="W15" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="160"/>
+      <c r="AK15" s="161"/>
       <c r="AL15" s="147" t="s">
         <v>145</v>
       </c>
@@ -61240,95 +61452,95 @@
       </c>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="162" t="s">
+      <c r="H16" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="165" t="s">
-        <v>194</v>
-      </c>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="166"/>
-      <c r="AJ16" s="166"/>
-      <c r="AK16" s="167"/>
-      <c r="AL16" s="168" t="s">
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="179"/>
+      <c r="Q16" s="179"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="179"/>
+      <c r="T16" s="179"/>
+      <c r="U16" s="179"/>
+      <c r="V16" s="180"/>
+      <c r="W16" s="181" t="s">
+        <v>193</v>
+      </c>
+      <c r="X16" s="182"/>
+      <c r="Y16" s="182"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="182"/>
+      <c r="AC16" s="182"/>
+      <c r="AD16" s="182"/>
+      <c r="AE16" s="182"/>
+      <c r="AF16" s="182"/>
+      <c r="AG16" s="182"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="182"/>
+      <c r="AJ16" s="182"/>
+      <c r="AK16" s="183"/>
+      <c r="AL16" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="AM16" s="168"/>
-      <c r="AN16" s="168"/>
-      <c r="AO16" s="168"/>
-      <c r="AP16" s="168"/>
-      <c r="AQ16" s="168"/>
-      <c r="AR16" s="161" t="s">
+      <c r="AM16" s="184"/>
+      <c r="AN16" s="184"/>
+      <c r="AO16" s="184"/>
+      <c r="AP16" s="184"/>
+      <c r="AQ16" s="184"/>
+      <c r="AR16" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="AS16" s="161"/>
-      <c r="AT16" s="161"/>
-      <c r="AU16" s="161"/>
-      <c r="AV16" s="161"/>
-      <c r="AW16" s="161"/>
-      <c r="AX16" s="161"/>
-      <c r="AY16" s="161"/>
-      <c r="AZ16" s="161"/>
-      <c r="BA16" s="161"/>
-      <c r="BB16" s="161"/>
-      <c r="BC16" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD16" s="166"/>
-      <c r="BE16" s="166"/>
-      <c r="BF16" s="166"/>
-      <c r="BG16" s="166"/>
-      <c r="BH16" s="166"/>
-      <c r="BI16" s="166"/>
-      <c r="BJ16" s="166"/>
-      <c r="BK16" s="166"/>
-      <c r="BL16" s="166"/>
-      <c r="BM16" s="166"/>
-      <c r="BN16" s="166"/>
-      <c r="BO16" s="166"/>
-      <c r="BP16" s="166"/>
-      <c r="BQ16" s="166"/>
-      <c r="BR16" s="166"/>
-      <c r="BS16" s="166"/>
-      <c r="BT16" s="166"/>
-      <c r="BU16" s="166"/>
-      <c r="BV16" s="166"/>
-      <c r="BW16" s="166"/>
-      <c r="BX16" s="166"/>
-      <c r="BY16" s="166"/>
-      <c r="BZ16" s="166"/>
-      <c r="CA16" s="166"/>
-      <c r="CB16" s="166"/>
-      <c r="CC16" s="166"/>
-      <c r="CD16" s="166"/>
-      <c r="CE16" s="166"/>
-      <c r="CF16" s="166"/>
-      <c r="CG16" s="166"/>
-      <c r="CH16" s="167"/>
+      <c r="AS16" s="155"/>
+      <c r="AT16" s="155"/>
+      <c r="AU16" s="155"/>
+      <c r="AV16" s="155"/>
+      <c r="AW16" s="155"/>
+      <c r="AX16" s="155"/>
+      <c r="AY16" s="155"/>
+      <c r="AZ16" s="155"/>
+      <c r="BA16" s="155"/>
+      <c r="BB16" s="155"/>
+      <c r="BC16" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD16" s="182"/>
+      <c r="BE16" s="182"/>
+      <c r="BF16" s="182"/>
+      <c r="BG16" s="182"/>
+      <c r="BH16" s="182"/>
+      <c r="BI16" s="182"/>
+      <c r="BJ16" s="182"/>
+      <c r="BK16" s="182"/>
+      <c r="BL16" s="182"/>
+      <c r="BM16" s="182"/>
+      <c r="BN16" s="182"/>
+      <c r="BO16" s="182"/>
+      <c r="BP16" s="182"/>
+      <c r="BQ16" s="182"/>
+      <c r="BR16" s="182"/>
+      <c r="BS16" s="182"/>
+      <c r="BT16" s="182"/>
+      <c r="BU16" s="182"/>
+      <c r="BV16" s="182"/>
+      <c r="BW16" s="182"/>
+      <c r="BX16" s="182"/>
+      <c r="BY16" s="182"/>
+      <c r="BZ16" s="182"/>
+      <c r="CA16" s="182"/>
+      <c r="CB16" s="182"/>
+      <c r="CC16" s="182"/>
+      <c r="CD16" s="182"/>
+      <c r="CE16" s="182"/>
+      <c r="CF16" s="182"/>
+      <c r="CG16" s="182"/>
+      <c r="CH16" s="183"/>
       <c r="CI16" s="48"/>
       <c r="CJ16" s="37"/>
       <c r="CK16" s="34"/>
